--- a/England National League South/England National League South.xlsx
+++ b/England National League South/England National League South.xlsx
@@ -47561,7 +47561,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>7407830</v>
+        <v>7407989</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47573,28 +47573,28 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F529" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G529" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J529" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K529">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L529">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M529">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N529">
         <v>1.6</v>
@@ -47603,46 +47603,46 @@
         <v>3.75</v>
       </c>
       <c r="P529">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q529">
         <v>-0.75</v>
       </c>
       <c r="R529">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S529">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T529">
         <v>2.5</v>
       </c>
       <c r="U529">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V529">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W529">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X529">
         <v>-1</v>
       </c>
       <c r="Y529">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z529">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA529">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB529">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC529">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -47650,7 +47650,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>7407989</v>
+        <v>7407830</v>
       </c>
       <c r="C530" t="s">
         <v>28</v>
@@ -47662,28 +47662,28 @@
         <v>45265.69791666666</v>
       </c>
       <c r="F530" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G530" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J530" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K530">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L530">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M530">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N530">
         <v>1.6</v>
@@ -47692,46 +47692,46 @@
         <v>3.75</v>
       </c>
       <c r="P530">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q530">
         <v>-0.75</v>
       </c>
       <c r="R530">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S530">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T530">
         <v>2.5</v>
       </c>
       <c r="U530">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V530">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W530">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X530">
         <v>-1</v>
       </c>
       <c r="Y530">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z530">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA530">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB530">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC530">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531" spans="1:29">
@@ -51655,7 +51655,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6875839</v>
+        <v>6875716</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51667,40 +51667,40 @@
         <v>45290.5</v>
       </c>
       <c r="F575" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G575" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575">
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K575">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L575">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M575">
+        <v>4.333</v>
+      </c>
+      <c r="N575">
+        <v>1.65</v>
+      </c>
+      <c r="O575">
         <v>3.6</v>
       </c>
-      <c r="N575">
-        <v>1.833</v>
-      </c>
-      <c r="O575">
-        <v>3.5</v>
-      </c>
       <c r="P575">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q575">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R575">
         <v>1.9</v>
@@ -51709,34 +51709,34 @@
         <v>1.9</v>
       </c>
       <c r="T575">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U575">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V575">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W575">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X575">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y575">
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA575">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB575">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC575">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51744,7 +51744,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>6875716</v>
+        <v>6875839</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51756,40 +51756,40 @@
         <v>45290.5</v>
       </c>
       <c r="F576" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G576" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576">
         <v>1</v>
       </c>
       <c r="J576" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K576">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L576">
+        <v>3.5</v>
+      </c>
+      <c r="M576">
         <v>3.6</v>
       </c>
-      <c r="M576">
-        <v>4.333</v>
-      </c>
       <c r="N576">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O576">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P576">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q576">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R576">
         <v>1.9</v>
@@ -51798,34 +51798,34 @@
         <v>1.9</v>
       </c>
       <c r="T576">
+        <v>3</v>
+      </c>
+      <c r="U576">
+        <v>1.975</v>
+      </c>
+      <c r="V576">
+        <v>1.825</v>
+      </c>
+      <c r="W576">
+        <v>-1</v>
+      </c>
+      <c r="X576">
         <v>2.5</v>
       </c>
-      <c r="U576">
-        <v>1.95</v>
-      </c>
-      <c r="V576">
-        <v>1.85</v>
-      </c>
-      <c r="W576">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X576">
-        <v>-1</v>
-      </c>
       <c r="Y576">
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA576">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB576">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC576">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -51922,7 +51922,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6876336</v>
+        <v>6876328</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51934,76 +51934,76 @@
         <v>45292.5</v>
       </c>
       <c r="F578" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G578" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H578">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J578" t="s">
         <v>59</v>
       </c>
       <c r="K578">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L578">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M578">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N578">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O578">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P578">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q578">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R578">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S578">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T578">
         <v>2.75</v>
       </c>
       <c r="U578">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V578">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W578">
         <v>-1</v>
       </c>
       <c r="X578">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y578">
         <v>-1</v>
       </c>
       <c r="Z578">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA578">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB578">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -52011,7 +52011,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6876331</v>
+        <v>6876336</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52023,43 +52023,43 @@
         <v>45292.5</v>
       </c>
       <c r="F579" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G579" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I579">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J579" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K579">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L579">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M579">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N579">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O579">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P579">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q579">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R579">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S579">
         <v>1.975</v>
@@ -52068,28 +52068,28 @@
         <v>2.75</v>
       </c>
       <c r="U579">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V579">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W579">
         <v>-1</v>
       </c>
       <c r="X579">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y579">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA579">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB579">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC579">
         <v>-1</v>
@@ -52100,7 +52100,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>6876328</v>
+        <v>6876331</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52112,76 +52112,76 @@
         <v>45292.5</v>
       </c>
       <c r="F580" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G580" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J580" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K580">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L580">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M580">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N580">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O580">
+        <v>3.75</v>
+      </c>
+      <c r="P580">
         <v>4.333</v>
       </c>
-      <c r="P580">
-        <v>5.75</v>
-      </c>
       <c r="Q580">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R580">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S580">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T580">
         <v>2.75</v>
       </c>
       <c r="U580">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V580">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W580">
         <v>-1</v>
       </c>
       <c r="X580">
+        <v>-1</v>
+      </c>
+      <c r="Y580">
         <v>3.333</v>
       </c>
-      <c r="Y580">
-        <v>-1</v>
-      </c>
       <c r="Z580">
         <v>-1</v>
       </c>
       <c r="AA580">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB580">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC580">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52278,7 +52278,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6876330</v>
+        <v>6876329</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52290,73 +52290,73 @@
         <v>45292.5</v>
       </c>
       <c r="F582" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G582" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H582">
+        <v>3</v>
+      </c>
+      <c r="I582">
         <v>0</v>
       </c>
-      <c r="I582">
-        <v>4</v>
-      </c>
       <c r="J582" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K582">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L582">
+        <v>3.2</v>
+      </c>
+      <c r="M582">
         <v>3.6</v>
       </c>
-      <c r="M582">
-        <v>2.15</v>
-      </c>
       <c r="N582">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O582">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P582">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="Q582">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R582">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S582">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T582">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U582">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V582">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W582">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X582">
         <v>-1</v>
       </c>
       <c r="Y582">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z582">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA582">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB582">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC582">
         <v>-1</v>
@@ -52367,7 +52367,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6876329</v>
+        <v>6876333</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52379,49 +52379,49 @@
         <v>45292.5</v>
       </c>
       <c r="F583" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G583" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H583">
+        <v>2</v>
+      </c>
+      <c r="I583">
         <v>3</v>
       </c>
-      <c r="I583">
-        <v>0</v>
-      </c>
       <c r="J583" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K583">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L583">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M583">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N583">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O583">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P583">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q583">
         <v>-0.5</v>
       </c>
       <c r="R583">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S583">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T583">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U583">
         <v>1.95</v>
@@ -52430,19 +52430,19 @@
         <v>1.85</v>
       </c>
       <c r="W583">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X583">
         <v>-1</v>
       </c>
       <c r="Y583">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z583">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA583">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB583">
         <v>0.95</v>
@@ -52456,7 +52456,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>6876333</v>
+        <v>6876330</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52468,56 +52468,56 @@
         <v>45292.5</v>
       </c>
       <c r="F584" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G584" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J584" t="s">
         <v>61</v>
       </c>
       <c r="K584">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L584">
         <v>3.6</v>
       </c>
       <c r="M584">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N584">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="O584">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P584">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q584">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R584">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S584">
+        <v>2</v>
+      </c>
+      <c r="T584">
+        <v>3.25</v>
+      </c>
+      <c r="U584">
+        <v>2</v>
+      </c>
+      <c r="V584">
         <v>1.8</v>
       </c>
-      <c r="T584">
-        <v>2.75</v>
-      </c>
-      <c r="U584">
-        <v>1.95</v>
-      </c>
-      <c r="V584">
-        <v>1.85</v>
-      </c>
       <c r="W584">
         <v>-1</v>
       </c>
@@ -52525,16 +52525,16 @@
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>2.1</v>
+        <v>0.571</v>
       </c>
       <c r="Z584">
         <v>-1</v>
       </c>
       <c r="AA584">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB584">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC584">
         <v>-1</v>
@@ -54325,7 +54325,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6876358</v>
+        <v>6876359</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54337,49 +54337,49 @@
         <v>45311.5</v>
       </c>
       <c r="F605" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G605" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605">
         <v>1</v>
       </c>
       <c r="J605" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K605">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L605">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M605">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N605">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O605">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P605">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q605">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R605">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S605">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T605">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U605">
         <v>1.85</v>
@@ -54388,25 +54388,25 @@
         <v>1.95</v>
       </c>
       <c r="W605">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X605">
         <v>-1</v>
       </c>
       <c r="Y605">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z605">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA605">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB605">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC605">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54414,7 +54414,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>6875718</v>
+        <v>6876358</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54426,73 +54426,73 @@
         <v>45311.5</v>
       </c>
       <c r="F606" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G606" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H606">
         <v>2</v>
       </c>
       <c r="I606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J606" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K606">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L606">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M606">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N606">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O606">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P606">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q606">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R606">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S606">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T606">
         <v>2.5</v>
       </c>
       <c r="U606">
+        <v>1.85</v>
+      </c>
+      <c r="V606">
         <v>1.95</v>
       </c>
-      <c r="V606">
-        <v>1.85</v>
-      </c>
       <c r="W606">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X606">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA606">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB606">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC606">
         <v>-1</v>
@@ -54503,7 +54503,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>6876359</v>
+        <v>6875718</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54515,76 +54515,76 @@
         <v>45311.5</v>
       </c>
       <c r="F607" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G607" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J607" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K607">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L607">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M607">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N607">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O607">
         <v>3.4</v>
       </c>
       <c r="P607">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q607">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R607">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S607">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T607">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U607">
+        <v>1.95</v>
+      </c>
+      <c r="V607">
         <v>1.85</v>
       </c>
-      <c r="V607">
-        <v>1.95</v>
-      </c>
       <c r="W607">
         <v>-1</v>
       </c>
       <c r="X607">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y607">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z607">
         <v>-1</v>
       </c>
       <c r="AA607">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB607">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC607">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -55126,7 +55126,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>6876365</v>
+        <v>6876943</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55138,76 +55138,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F614" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G614" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H614">
         <v>1</v>
       </c>
       <c r="I614">
+        <v>2</v>
+      </c>
+      <c r="J614" t="s">
+        <v>61</v>
+      </c>
+      <c r="K614">
+        <v>3.2</v>
+      </c>
+      <c r="L614">
+        <v>3.1</v>
+      </c>
+      <c r="M614">
+        <v>2.1</v>
+      </c>
+      <c r="N614">
+        <v>3.5</v>
+      </c>
+      <c r="O614">
+        <v>3.25</v>
+      </c>
+      <c r="P614">
+        <v>1.95</v>
+      </c>
+      <c r="Q614">
+        <v>0.5</v>
+      </c>
+      <c r="R614">
+        <v>1.8</v>
+      </c>
+      <c r="S614">
+        <v>2</v>
+      </c>
+      <c r="T614">
+        <v>2.5</v>
+      </c>
+      <c r="U614">
+        <v>2.025</v>
+      </c>
+      <c r="V614">
+        <v>1.775</v>
+      </c>
+      <c r="W614">
+        <v>-1</v>
+      </c>
+      <c r="X614">
+        <v>-1</v>
+      </c>
+      <c r="Y614">
+        <v>0.95</v>
+      </c>
+      <c r="Z614">
+        <v>-1</v>
+      </c>
+      <c r="AA614">
         <v>1</v>
       </c>
-      <c r="J614" t="s">
-        <v>59</v>
-      </c>
-      <c r="K614">
-        <v>2.1</v>
-      </c>
-      <c r="L614">
-        <v>3.6</v>
-      </c>
-      <c r="M614">
-        <v>2.8</v>
-      </c>
-      <c r="N614">
-        <v>1.909</v>
-      </c>
-      <c r="O614">
-        <v>3.3</v>
-      </c>
-      <c r="P614">
-        <v>3.6</v>
-      </c>
-      <c r="Q614">
-        <v>-0.5</v>
-      </c>
-      <c r="R614">
-        <v>1.975</v>
-      </c>
-      <c r="S614">
-        <v>1.825</v>
-      </c>
-      <c r="T614">
-        <v>2.25</v>
-      </c>
-      <c r="U614">
-        <v>1.8</v>
-      </c>
-      <c r="V614">
-        <v>2</v>
-      </c>
-      <c r="W614">
-        <v>-1</v>
-      </c>
-      <c r="X614">
-        <v>2.3</v>
-      </c>
-      <c r="Y614">
-        <v>-1</v>
-      </c>
-      <c r="Z614">
-        <v>-1</v>
-      </c>
-      <c r="AA614">
-        <v>0.825</v>
-      </c>
       <c r="AB614">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC614">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55304,7 +55304,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>6876367</v>
+        <v>6876945</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55316,49 +55316,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F616" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G616" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J616" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K616">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L616">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M616">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N616">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O616">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P616">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q616">
         <v>-0.25</v>
       </c>
       <c r="R616">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S616">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T616">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U616">
         <v>1.975</v>
@@ -55370,16 +55370,16 @@
         <v>-1</v>
       </c>
       <c r="X616">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y616">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z616">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA616">
-        <v>0.475</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB616">
         <v>-1</v>
@@ -55393,7 +55393,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6876943</v>
+        <v>6876367</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55405,76 +55405,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F617" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G617" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H617">
         <v>1</v>
       </c>
       <c r="I617">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J617" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K617">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L617">
+        <v>3.4</v>
+      </c>
+      <c r="M617">
         <v>3.1</v>
       </c>
-      <c r="M617">
-        <v>2.1</v>
-      </c>
       <c r="N617">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O617">
+        <v>3.75</v>
+      </c>
+      <c r="P617">
+        <v>3.1</v>
+      </c>
+      <c r="Q617">
+        <v>-0.25</v>
+      </c>
+      <c r="R617">
+        <v>1.75</v>
+      </c>
+      <c r="S617">
+        <v>1.95</v>
+      </c>
+      <c r="T617">
         <v>3.25</v>
       </c>
-      <c r="P617">
-        <v>1.95</v>
-      </c>
-      <c r="Q617">
-        <v>0.5</v>
-      </c>
-      <c r="R617">
-        <v>1.8</v>
-      </c>
-      <c r="S617">
-        <v>2</v>
-      </c>
-      <c r="T617">
-        <v>2.5</v>
-      </c>
       <c r="U617">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V617">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W617">
         <v>-1</v>
       </c>
       <c r="X617">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y617">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z617">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA617">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB617">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC617">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55482,7 +55482,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>6876945</v>
+        <v>6876364</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55494,76 +55494,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F618" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G618" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H618">
+        <v>2</v>
+      </c>
+      <c r="I618">
+        <v>1</v>
+      </c>
+      <c r="J618" t="s">
+        <v>60</v>
+      </c>
+      <c r="K618">
+        <v>2.45</v>
+      </c>
+      <c r="L618">
+        <v>3.4</v>
+      </c>
+      <c r="M618">
+        <v>2.45</v>
+      </c>
+      <c r="N618">
+        <v>2.55</v>
+      </c>
+      <c r="O618">
+        <v>3.3</v>
+      </c>
+      <c r="P618">
+        <v>2.4</v>
+      </c>
+      <c r="Q618">
         <v>0</v>
       </c>
-      <c r="I618">
-        <v>2</v>
-      </c>
-      <c r="J618" t="s">
-        <v>61</v>
-      </c>
-      <c r="K618">
-        <v>2.1</v>
-      </c>
-      <c r="L618">
-        <v>3.3</v>
-      </c>
-      <c r="M618">
-        <v>3</v>
-      </c>
-      <c r="N618">
-        <v>2.25</v>
-      </c>
-      <c r="O618">
-        <v>3.25</v>
-      </c>
-      <c r="P618">
-        <v>2.8</v>
-      </c>
-      <c r="Q618">
-        <v>-0.25</v>
-      </c>
       <c r="R618">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S618">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T618">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U618">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V618">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W618">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X618">
         <v>-1</v>
       </c>
       <c r="Y618">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z618">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA618">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB618">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC618">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55571,7 +55571,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6876364</v>
+        <v>6877044</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55583,40 +55583,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F619" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G619" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619">
         <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K619">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L619">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M619">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N619">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O619">
         <v>3.3</v>
       </c>
       <c r="P619">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q619">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R619">
         <v>2</v>
@@ -55625,34 +55625,34 @@
         <v>1.8</v>
       </c>
       <c r="T619">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U619">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V619">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W619">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z619">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB619">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC619">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55660,7 +55660,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6877044</v>
+        <v>6876365</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55672,76 +55672,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F620" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G620" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I620">
         <v>1</v>
       </c>
       <c r="J620" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K620">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L620">
         <v>3.6</v>
       </c>
       <c r="M620">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N620">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O620">
         <v>3.3</v>
       </c>
       <c r="P620">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q620">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R620">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S620">
+        <v>1.825</v>
+      </c>
+      <c r="T620">
+        <v>2.25</v>
+      </c>
+      <c r="U620">
         <v>1.8</v>
       </c>
-      <c r="T620">
-        <v>2.5</v>
-      </c>
-      <c r="U620">
-        <v>1.9</v>
-      </c>
       <c r="V620">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W620">
         <v>-1</v>
       </c>
       <c r="X620">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y620">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z620">
         <v>-1</v>
       </c>
       <c r="AA620">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB620">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC620">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -58419,7 +58419,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>6877117</v>
+        <v>6877116</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58431,46 +58431,46 @@
         <v>45332.5</v>
       </c>
       <c r="F651" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G651" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H651">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K651">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L651">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M651">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N651">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="O651">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P651">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q651">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R651">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S651">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T651">
         <v>2.5</v>
@@ -58482,25 +58482,25 @@
         <v>1.95</v>
       </c>
       <c r="W651">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y651">
         <v>-1</v>
       </c>
       <c r="Z651">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA651">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB651">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC651">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58508,7 +58508,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>6877118</v>
+        <v>6877117</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58520,73 +58520,73 @@
         <v>45332.5</v>
       </c>
       <c r="F652" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G652" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H652">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I652">
+        <v>0</v>
+      </c>
+      <c r="J652" t="s">
+        <v>60</v>
+      </c>
+      <c r="K652">
+        <v>1.8</v>
+      </c>
+      <c r="L652">
+        <v>3.6</v>
+      </c>
+      <c r="M652">
+        <v>3.6</v>
+      </c>
+      <c r="N652">
+        <v>1.571</v>
+      </c>
+      <c r="O652">
         <v>4</v>
       </c>
-      <c r="J652" t="s">
-        <v>61</v>
-      </c>
-      <c r="K652">
-        <v>2</v>
-      </c>
-      <c r="L652">
-        <v>3.75</v>
-      </c>
-      <c r="M652">
-        <v>2.9</v>
-      </c>
-      <c r="N652">
+      <c r="P652">
+        <v>5</v>
+      </c>
+      <c r="Q652">
+        <v>-1</v>
+      </c>
+      <c r="R652">
+        <v>2</v>
+      </c>
+      <c r="S652">
+        <v>1.8</v>
+      </c>
+      <c r="T652">
         <v>2.5</v>
       </c>
-      <c r="O652">
-        <v>3.6</v>
-      </c>
-      <c r="P652">
-        <v>2.4</v>
-      </c>
-      <c r="Q652">
-        <v>0</v>
-      </c>
-      <c r="R652">
+      <c r="U652">
         <v>1.85</v>
       </c>
-      <c r="S652">
+      <c r="V652">
         <v>1.95</v>
       </c>
-      <c r="T652">
-        <v>2.75</v>
-      </c>
-      <c r="U652">
-        <v>1.825</v>
-      </c>
-      <c r="V652">
-        <v>1.975</v>
-      </c>
       <c r="W652">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X652">
         <v>-1</v>
       </c>
       <c r="Y652">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA652">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB652">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -58597,7 +58597,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>6877121</v>
+        <v>6877118</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58609,73 +58609,73 @@
         <v>45332.5</v>
       </c>
       <c r="F653" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G653" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H653">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I653">
         <v>4</v>
       </c>
       <c r="J653" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K653">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L653">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M653">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N653">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O653">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P653">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q653">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R653">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S653">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T653">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U653">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V653">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W653">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z653">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA653">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB653">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC653">
         <v>-1</v>
@@ -58686,7 +58686,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>6877139</v>
+        <v>6877121</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58698,73 +58698,73 @@
         <v>45332.5</v>
       </c>
       <c r="F654" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G654" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I654">
         <v>4</v>
       </c>
       <c r="J654" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K654">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L654">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M654">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N654">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="O654">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P654">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="Q654">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R654">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S654">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T654">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U654">
+        <v>1.925</v>
+      </c>
+      <c r="V654">
         <v>1.875</v>
       </c>
-      <c r="V654">
-        <v>1.925</v>
-      </c>
       <c r="W654">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA654">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB654">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC654">
         <v>-1</v>
@@ -58775,7 +58775,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>7748932</v>
+        <v>6877139</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58787,40 +58787,40 @@
         <v>45332.5</v>
       </c>
       <c r="F655" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G655" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J655" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K655">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L655">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M655">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="N655">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O655">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P655">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q655">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R655">
         <v>1.9</v>
@@ -58829,7 +58829,7 @@
         <v>1.9</v>
       </c>
       <c r="T655">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U655">
         <v>1.875</v>
@@ -58838,25 +58838,25 @@
         <v>1.925</v>
       </c>
       <c r="W655">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z655">
+        <v>-1</v>
+      </c>
+      <c r="AA655">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA655">
-        <v>-1</v>
-      </c>
       <c r="AB655">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC655">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58864,7 +58864,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6877116</v>
+        <v>7748932</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58876,76 +58876,76 @@
         <v>45332.5</v>
       </c>
       <c r="F656" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G656" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H656">
         <v>1</v>
       </c>
       <c r="I656">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J656" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K656">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L656">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M656">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N656">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O656">
         <v>3.5</v>
       </c>
       <c r="P656">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q656">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R656">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S656">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T656">
         <v>2.5</v>
       </c>
       <c r="U656">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V656">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W656">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X656">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y656">
         <v>-1</v>
       </c>
       <c r="Z656">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA656">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB656">
         <v>-1</v>
       </c>
       <c r="AC656">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="657" spans="1:29">

--- a/England National League South/England National League South.xlsx
+++ b/England National League South/England National League South.xlsx
@@ -5536,7 +5536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6876162</v>
+        <v>6876161</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5545,58 +5545,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
       </c>
       <c r="J59">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K59">
         <v>3.5</v>
       </c>
       <c r="L59">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N59">
         <v>3.5</v>
       </c>
       <c r="O59">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
         <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5605,16 +5605,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5622,7 +5622,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6876164</v>
+        <v>6876162</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5631,76 +5631,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J60">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K60">
         <v>3.5</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M60">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N60">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q60">
+        <v>1.975</v>
+      </c>
+      <c r="R60">
         <v>1.825</v>
       </c>
-      <c r="R60">
+      <c r="S60">
+        <v>2.5</v>
+      </c>
+      <c r="T60">
+        <v>1.825</v>
+      </c>
+      <c r="U60">
         <v>1.975</v>
       </c>
-      <c r="S60">
-        <v>2.75</v>
-      </c>
-      <c r="T60">
-        <v>1.975</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
       <c r="V60">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5708,7 +5708,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6876161</v>
+        <v>6876164</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5717,76 +5717,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J61">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K61">
         <v>3.5</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="N61">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q61">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T61">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6876167</v>
+        <v>6876166</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5889,19 +5889,19 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5913,52 +5913,52 @@
         <v>2.8</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
         <v>2.5</v>
       </c>
       <c r="T63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z63">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5966,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6876168</v>
+        <v>6876167</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5975,76 +5975,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M64">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="N64">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6052,7 +6052,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6875877</v>
+        <v>6876168</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6061,58 +6061,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
       </c>
       <c r="J65">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q65">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>2.2</v>
+        <v>0.615</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6121,16 +6121,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6138,7 +6138,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6876166</v>
+        <v>6875697</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6147,58 +6147,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G66">
         <v>3</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
       </c>
       <c r="J66">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K66">
         <v>3.5</v>
       </c>
       <c r="L66">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M66">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N66">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
         <v>2.5</v>
       </c>
       <c r="T66">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6207,13 +6207,13 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6310,7 +6310,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6875697</v>
+        <v>6876163</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6319,76 +6319,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J68">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L68">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N68">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O68">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q68">
+        <v>1.825</v>
+      </c>
+      <c r="R68">
         <v>1.975</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
       </c>
       <c r="S68">
         <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
+        <v>-1</v>
+      </c>
+      <c r="Z68">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z68">
-        <v>-1</v>
-      </c>
       <c r="AA68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6396,7 +6396,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6876163</v>
+        <v>6875803</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6405,76 +6405,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J69">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K69">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L69">
+        <v>4.333</v>
+      </c>
+      <c r="M69">
+        <v>1.5</v>
+      </c>
+      <c r="N69">
         <v>4.2</v>
       </c>
-      <c r="M69">
-        <v>1.833</v>
-      </c>
-      <c r="N69">
-        <v>3.4</v>
-      </c>
       <c r="O69">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q69">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="R69">
         <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6482,7 +6482,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6875803</v>
+        <v>6875877</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6491,58 +6491,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
         <v>52</v>
       </c>
       <c r="J70">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="M70">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="P70">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q70">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
         <v>2.75</v>
       </c>
       <c r="T70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6551,16 +6551,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6998,7 +6998,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6875806</v>
+        <v>6876172</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7007,73 +7007,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J76">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
         <v>2.5</v>
       </c>
       <c r="T76">
+        <v>1.875</v>
+      </c>
+      <c r="U76">
         <v>1.925</v>
       </c>
-      <c r="U76">
-        <v>1.875</v>
-      </c>
       <c r="V76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7084,7 +7084,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6876172</v>
+        <v>6875806</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7093,73 +7093,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J77">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N77">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
         <v>2.5</v>
       </c>
       <c r="T77">
+        <v>1.925</v>
+      </c>
+      <c r="U77">
         <v>1.875</v>
       </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
       <c r="V77">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7944,7 +7944,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6876178</v>
+        <v>6876179</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7953,40 +7953,40 @@
         <v>45174.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87">
+        <v>2.05</v>
+      </c>
+      <c r="K87">
+        <v>3.4</v>
+      </c>
+      <c r="L87">
         <v>3</v>
       </c>
-      <c r="H87">
+      <c r="M87">
+        <v>2.05</v>
+      </c>
+      <c r="N87">
+        <v>3.4</v>
+      </c>
+      <c r="O87">
         <v>3</v>
       </c>
-      <c r="I87" t="s">
-        <v>53</v>
-      </c>
-      <c r="J87">
-        <v>2.2</v>
-      </c>
-      <c r="K87">
-        <v>3.25</v>
-      </c>
-      <c r="L87">
-        <v>2.8</v>
-      </c>
-      <c r="M87">
-        <v>2.8</v>
-      </c>
-      <c r="N87">
-        <v>3.3</v>
-      </c>
-      <c r="O87">
-        <v>2.3</v>
-      </c>
       <c r="P87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
         <v>2.1</v>
@@ -7995,34 +7995,34 @@
         <v>1.7</v>
       </c>
       <c r="S87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W87">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8030,7 +8030,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6875879</v>
+        <v>6876178</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8039,73 +8039,73 @@
         <v>45174.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J88">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K88">
+        <v>3.25</v>
+      </c>
+      <c r="L88">
+        <v>2.8</v>
+      </c>
+      <c r="M88">
+        <v>2.8</v>
+      </c>
+      <c r="N88">
         <v>3.3</v>
       </c>
-      <c r="L88">
-        <v>2.5</v>
-      </c>
-      <c r="M88">
-        <v>3</v>
-      </c>
-      <c r="N88">
-        <v>3.2</v>
-      </c>
       <c r="O88">
+        <v>2.3</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>2.1</v>
       </c>
-      <c r="P88">
-        <v>0.25</v>
-      </c>
-      <c r="Q88">
-        <v>1.9</v>
-      </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S88">
         <v>2.25</v>
       </c>
       <c r="T88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8116,7 +8116,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6875807</v>
+        <v>6875879</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8125,55 +8125,55 @@
         <v>45174.65625</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
         <v>54</v>
       </c>
       <c r="J89">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="K89">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P89">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
         <v>-1</v>
@@ -8182,19 +8182,19 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8202,7 +8202,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6876182</v>
+        <v>6875807</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8211,76 +8211,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J90">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K90">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="L90">
+        <v>6</v>
+      </c>
+      <c r="M90">
+        <v>1.65</v>
+      </c>
+      <c r="N90">
+        <v>3.8</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>-0.75</v>
+      </c>
+      <c r="Q90">
+        <v>1.875</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
         <v>2.75</v>
       </c>
-      <c r="M90">
-        <v>1.95</v>
-      </c>
-      <c r="N90">
-        <v>3.4</v>
-      </c>
-      <c r="O90">
-        <v>3.3</v>
-      </c>
-      <c r="P90">
+      <c r="T90">
+        <v>1.8</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>-1</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.925</v>
+      </c>
+      <c r="AA90">
+        <v>0.4</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
-      </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
-      <c r="R90">
-        <v>1.8</v>
-      </c>
-      <c r="S90">
-        <v>2.5</v>
-      </c>
-      <c r="T90">
-        <v>1.85</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>-1</v>
-      </c>
-      <c r="W90">
-        <v>2.4</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.8</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8288,7 +8288,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6876183</v>
+        <v>6876182</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8297,76 +8297,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J91">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K91">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O91">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8374,7 +8374,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6876179</v>
+        <v>6876183</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8383,13 +8383,13 @@
         <v>45174.65625</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8398,43 +8398,43 @@
         <v>52</v>
       </c>
       <c r="J92">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="K92">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="N92">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="P92">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q92">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="R92">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8443,7 +8443,7 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="Z92">
         <v>-1</v>
@@ -8452,7 +8452,7 @@
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -20500,7 +20500,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6876299</v>
+        <v>6876293</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20509,34 +20509,34 @@
         <v>45262.5</v>
       </c>
       <c r="E233" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F233" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G233">
+        <v>2</v>
+      </c>
+      <c r="H233">
         <v>3</v>
       </c>
-      <c r="H233">
-        <v>1</v>
-      </c>
       <c r="I233" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J233">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K233">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L233">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M233">
         <v>2</v>
       </c>
       <c r="N233">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O233">
         <v>3.25</v>
@@ -20545,37 +20545,37 @@
         <v>-0.25</v>
       </c>
       <c r="Q233">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T233">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U233">
         <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -20586,7 +20586,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6876293</v>
+        <v>6876299</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20595,34 +20595,34 @@
         <v>45262.5</v>
       </c>
       <c r="E234" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J234">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K234">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L234">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M234">
         <v>2</v>
       </c>
       <c r="N234">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O234">
         <v>3.25</v>
@@ -20631,37 +20631,37 @@
         <v>-0.25</v>
       </c>
       <c r="Q234">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T234">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U234">
         <v>1.95</v>
       </c>
       <c r="V234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB234">
         <v>-1</v>
@@ -22048,7 +22048,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6875713</v>
+        <v>6876307</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22057,58 +22057,58 @@
         <v>45276.5</v>
       </c>
       <c r="E251" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="s">
         <v>52</v>
       </c>
       <c r="J251">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="K251">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L251">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="M251">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="N251">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P251">
         <v>-0.5</v>
       </c>
       <c r="Q251">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T251">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22117,16 +22117,16 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22134,7 +22134,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876307</v>
+        <v>6876308</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22143,76 +22143,76 @@
         <v>45276.5</v>
       </c>
       <c r="E252" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J252">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K252">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L252">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="M252">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N252">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O252">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P252">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q252">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R252">
+        <v>2.025</v>
+      </c>
+      <c r="S252">
+        <v>2.5</v>
+      </c>
+      <c r="T252">
+        <v>2</v>
+      </c>
+      <c r="U252">
         <v>1.8</v>
       </c>
-      <c r="S252">
-        <v>2.75</v>
-      </c>
-      <c r="T252">
-        <v>1.975</v>
-      </c>
-      <c r="U252">
-        <v>1.825</v>
-      </c>
       <c r="V252">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22220,7 +22220,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6876308</v>
+        <v>6875713</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22229,76 +22229,76 @@
         <v>45276.5</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
         <v>0</v>
       </c>
-      <c r="H253">
-        <v>2</v>
-      </c>
       <c r="I253" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J253">
         <v>2.2</v>
       </c>
       <c r="K253">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L253">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M253">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N253">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O253">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P253">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q253">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R253">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
         <v>2.5</v>
       </c>
       <c r="T253">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U253">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V253">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z253">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22306,7 +22306,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6876302</v>
+        <v>6875893</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22315,76 +22315,76 @@
         <v>45276.5</v>
       </c>
       <c r="E254" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="s">
         <v>53</v>
       </c>
       <c r="J254">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K254">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L254">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="N254">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O254">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="P254">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q254">
+        <v>1.95</v>
+      </c>
+      <c r="R254">
+        <v>1.85</v>
+      </c>
+      <c r="S254">
+        <v>2.75</v>
+      </c>
+      <c r="T254">
         <v>1.825</v>
       </c>
-      <c r="R254">
+      <c r="U254">
         <v>1.975</v>
       </c>
-      <c r="S254">
-        <v>2.5</v>
-      </c>
-      <c r="T254">
-        <v>1.975</v>
-      </c>
-      <c r="U254">
-        <v>1.825</v>
-      </c>
       <c r="V254">
         <v>-1</v>
       </c>
       <c r="W254">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22392,7 +22392,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6876303</v>
+        <v>6876306</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22401,61 +22401,61 @@
         <v>45276.5</v>
       </c>
       <c r="E255" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H255">
         <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J255">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="K255">
         <v>3.4</v>
       </c>
       <c r="L255">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N255">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O255">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="P255">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q255">
         <v>1.975</v>
       </c>
       <c r="R255">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S255">
         <v>2.5</v>
       </c>
       <c r="T255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W255">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -22467,10 +22467,10 @@
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22478,7 +22478,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6876306</v>
+        <v>6876302</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22487,76 +22487,76 @@
         <v>45276.5</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G256">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J256">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K256">
         <v>3.4</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="M256">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N256">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O256">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P256">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q256">
+        <v>1.825</v>
+      </c>
+      <c r="R256">
         <v>1.975</v>
-      </c>
-      <c r="R256">
-        <v>1.725</v>
       </c>
       <c r="S256">
         <v>2.5</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V256">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22564,7 +22564,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876305</v>
+        <v>6876304</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22573,16 +22573,16 @@
         <v>45276.5</v>
       </c>
       <c r="E257" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="s">
         <v>52</v>
@@ -22594,28 +22594,28 @@
         <v>3.4</v>
       </c>
       <c r="L257">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="M257">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N257">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O257">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="P257">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q257">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S257">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T257">
         <v>1.975</v>
@@ -22624,7 +22624,7 @@
         <v>1.825</v>
       </c>
       <c r="V257">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -22633,16 +22633,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB257">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22650,7 +22650,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876304</v>
+        <v>6875835</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22659,76 +22659,76 @@
         <v>45276.5</v>
       </c>
       <c r="E258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F258" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J258">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="K258">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L258">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="M258">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N258">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O258">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P258">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q258">
+        <v>2.025</v>
+      </c>
+      <c r="R258">
         <v>1.775</v>
       </c>
-      <c r="R258">
-        <v>2.025</v>
-      </c>
       <c r="S258">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T258">
+        <v>1.825</v>
+      </c>
+      <c r="U258">
         <v>1.975</v>
       </c>
-      <c r="U258">
-        <v>1.825</v>
-      </c>
       <c r="V258">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA258">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB258">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -22736,7 +22736,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6875835</v>
+        <v>6876303</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22745,76 +22745,76 @@
         <v>45276.5</v>
       </c>
       <c r="E259" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="s">
         <v>53</v>
       </c>
       <c r="J259">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="K259">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L259">
+        <v>2.2</v>
+      </c>
+      <c r="M259">
+        <v>3.8</v>
+      </c>
+      <c r="N259">
+        <v>3.3</v>
+      </c>
+      <c r="O259">
+        <v>1.8</v>
+      </c>
+      <c r="P259">
+        <v>0.5</v>
+      </c>
+      <c r="Q259">
+        <v>1.975</v>
+      </c>
+      <c r="R259">
+        <v>1.825</v>
+      </c>
+      <c r="S259">
         <v>2.5</v>
       </c>
-      <c r="M259">
-        <v>2.25</v>
-      </c>
-      <c r="N259">
-        <v>3.5</v>
-      </c>
-      <c r="O259">
-        <v>2.75</v>
-      </c>
-      <c r="P259">
-        <v>-0.25</v>
-      </c>
-      <c r="Q259">
-        <v>2.025</v>
-      </c>
-      <c r="R259">
-        <v>1.775</v>
-      </c>
-      <c r="S259">
-        <v>2.75</v>
-      </c>
       <c r="T259">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V259">
         <v>-1</v>
       </c>
       <c r="W259">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z259">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22822,7 +22822,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6875893</v>
+        <v>6876305</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22831,76 +22831,76 @@
         <v>45276.5</v>
       </c>
       <c r="E260" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F260" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J260">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="K260">
+        <v>3.4</v>
+      </c>
+      <c r="L260">
+        <v>2.4</v>
+      </c>
+      <c r="M260">
+        <v>3.6</v>
+      </c>
+      <c r="N260">
         <v>3.75</v>
       </c>
-      <c r="L260">
-        <v>4</v>
-      </c>
-      <c r="M260">
-        <v>1.4</v>
-      </c>
-      <c r="N260">
-        <v>4.333</v>
-      </c>
       <c r="O260">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="P260">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q260">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
         <v>2.75</v>
       </c>
       <c r="T260">
+        <v>1.975</v>
+      </c>
+      <c r="U260">
         <v>1.825</v>
       </c>
-      <c r="U260">
-        <v>1.975</v>
-      </c>
       <c r="V260">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W260">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z260">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB260">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -26864,7 +26864,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7528935</v>
+        <v>7650283</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -26873,56 +26873,56 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E307" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F307" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
         <v>1</v>
-      </c>
-      <c r="H307">
-        <v>2</v>
       </c>
       <c r="I307" t="s">
         <v>54</v>
       </c>
       <c r="J307">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="K307">
         <v>3.5</v>
       </c>
       <c r="L307">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="M307">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N307">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O307">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="P307">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q307">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R307">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S307">
         <v>2.5</v>
       </c>
       <c r="T307">
+        <v>1.875</v>
+      </c>
+      <c r="U307">
         <v>1.925</v>
       </c>
-      <c r="U307">
-        <v>1.875</v>
-      </c>
       <c r="V307">
         <v>-1</v>
       </c>
@@ -26930,19 +26930,19 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>2.1</v>
+        <v>0.45</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z307">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA307">
+        <v>-1</v>
+      </c>
+      <c r="AB307">
         <v>0.925</v>
-      </c>
-      <c r="AB307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:28">
@@ -26950,7 +26950,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7650283</v>
+        <v>7528935</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -26959,56 +26959,56 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E308" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F308" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="s">
         <v>54</v>
       </c>
       <c r="J308">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="K308">
         <v>3.5</v>
       </c>
       <c r="L308">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="M308">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N308">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O308">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="P308">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q308">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R308">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S308">
         <v>2.5</v>
       </c>
       <c r="T308">
+        <v>1.925</v>
+      </c>
+      <c r="U308">
         <v>1.875</v>
       </c>
-      <c r="U308">
-        <v>1.925</v>
-      </c>
       <c r="V308">
         <v>-1</v>
       </c>
@@ -27016,19 +27016,19 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>0.45</v>
+        <v>2.1</v>
       </c>
       <c r="Y308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB308">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -28326,7 +28326,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6875844</v>
+        <v>6877044</v>
       </c>
       <c r="C324" t="s">
         <v>27</v>
@@ -28335,55 +28335,55 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E324" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F324" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
         <v>1</v>
-      </c>
-      <c r="H324">
-        <v>2</v>
       </c>
       <c r="I324" t="s">
         <v>54</v>
       </c>
       <c r="J324">
+        <v>2</v>
+      </c>
+      <c r="K324">
+        <v>3.6</v>
+      </c>
+      <c r="L324">
         <v>3</v>
       </c>
-      <c r="K324">
-        <v>3.5</v>
-      </c>
-      <c r="L324">
-        <v>2</v>
-      </c>
       <c r="M324">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N324">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O324">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="P324">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q324">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R324">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
         <v>2.5</v>
       </c>
       <c r="T324">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U324">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
         <v>-1</v>
@@ -28392,19 +28392,19 @@
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>1.45</v>
+        <v>1.625</v>
       </c>
       <c r="Y324">
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:28">
@@ -28412,7 +28412,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6876364</v>
+        <v>6875844</v>
       </c>
       <c r="C325" t="s">
         <v>27</v>
@@ -28421,76 +28421,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E325" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F325" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J325">
+        <v>3</v>
+      </c>
+      <c r="K325">
+        <v>3.5</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
         <v>2.45</v>
       </c>
-      <c r="K325">
-        <v>3.4</v>
-      </c>
-      <c r="L325">
+      <c r="N325">
+        <v>3.25</v>
+      </c>
+      <c r="O325">
         <v>2.45</v>
-      </c>
-      <c r="M325">
-        <v>2.55</v>
-      </c>
-      <c r="N325">
-        <v>3.3</v>
-      </c>
-      <c r="O325">
-        <v>2.4</v>
       </c>
       <c r="P325">
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R325">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T325">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U325">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y325">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA325">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -28498,7 +28498,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6876365</v>
+        <v>6876364</v>
       </c>
       <c r="C326" t="s">
         <v>27</v>
@@ -28507,76 +28507,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E326" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F326" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326">
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J326">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="K326">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L326">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="M326">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N326">
         <v>3.3</v>
       </c>
       <c r="O326">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="P326">
+        <v>0</v>
+      </c>
+      <c r="Q326">
+        <v>2</v>
+      </c>
+      <c r="R326">
+        <v>1.8</v>
+      </c>
+      <c r="S326">
+        <v>2.75</v>
+      </c>
+      <c r="T326">
+        <v>2</v>
+      </c>
+      <c r="U326">
+        <v>1.8</v>
+      </c>
+      <c r="V326">
+        <v>1.55</v>
+      </c>
+      <c r="W326">
+        <v>-1</v>
+      </c>
+      <c r="X326">
+        <v>-1</v>
+      </c>
+      <c r="Y326">
+        <v>1</v>
+      </c>
+      <c r="Z326">
+        <v>-1</v>
+      </c>
+      <c r="AA326">
+        <v>0.5</v>
+      </c>
+      <c r="AB326">
         <v>-0.5</v>
-      </c>
-      <c r="Q326">
-        <v>1.975</v>
-      </c>
-      <c r="R326">
-        <v>1.825</v>
-      </c>
-      <c r="S326">
-        <v>2.25</v>
-      </c>
-      <c r="T326">
-        <v>1.8</v>
-      </c>
-      <c r="U326">
-        <v>2</v>
-      </c>
-      <c r="V326">
-        <v>-1</v>
-      </c>
-      <c r="W326">
-        <v>2.3</v>
-      </c>
-      <c r="X326">
-        <v>-1</v>
-      </c>
-      <c r="Y326">
-        <v>-1</v>
-      </c>
-      <c r="Z326">
-        <v>0.825</v>
-      </c>
-      <c r="AA326">
-        <v>-0.5</v>
-      </c>
-      <c r="AB326">
-        <v>0.5</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -28584,7 +28584,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6877044</v>
+        <v>6876365</v>
       </c>
       <c r="C327" t="s">
         <v>27</v>
@@ -28593,76 +28593,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E327" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F327" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J327">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K327">
         <v>3.6</v>
       </c>
       <c r="L327">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M327">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N327">
         <v>3.3</v>
       </c>
       <c r="O327">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P327">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q327">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R327">
+        <v>1.825</v>
+      </c>
+      <c r="S327">
+        <v>2.25</v>
+      </c>
+      <c r="T327">
         <v>1.8</v>
       </c>
-      <c r="S327">
-        <v>2.5</v>
-      </c>
-      <c r="T327">
-        <v>1.9</v>
-      </c>
       <c r="U327">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V327">
         <v>-1</v>
       </c>
       <c r="W327">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X327">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA327">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB327">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="328" spans="1:28">
@@ -29014,7 +29014,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876951</v>
+        <v>6876953</v>
       </c>
       <c r="C332" t="s">
         <v>27</v>
@@ -29023,76 +29023,76 @@
         <v>45318.5</v>
       </c>
       <c r="E332" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F332" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J332">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K332">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L332">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
+        <v>1.75</v>
+      </c>
+      <c r="N332">
         <v>4</v>
       </c>
-      <c r="N332">
-        <v>3.75</v>
-      </c>
       <c r="O332">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
+        <v>-0.5</v>
+      </c>
+      <c r="Q332">
+        <v>1.75</v>
+      </c>
+      <c r="R332">
+        <v>1.95</v>
+      </c>
+      <c r="S332">
+        <v>3.25</v>
+      </c>
+      <c r="T332">
+        <v>1.975</v>
+      </c>
+      <c r="U332">
+        <v>1.825</v>
+      </c>
+      <c r="V332">
         <v>0.75</v>
       </c>
-      <c r="Q332">
-        <v>1.875</v>
-      </c>
-      <c r="R332">
-        <v>1.925</v>
-      </c>
-      <c r="S332">
-        <v>2.5</v>
-      </c>
-      <c r="T332">
-        <v>1.95</v>
-      </c>
-      <c r="U332">
-        <v>1.85</v>
-      </c>
-      <c r="V332">
-        <v>-1</v>
-      </c>
       <c r="W332">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB332">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29100,7 +29100,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876953</v>
+        <v>6876951</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
@@ -29109,76 +29109,76 @@
         <v>45318.5</v>
       </c>
       <c r="E333" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
+        <v>53</v>
+      </c>
+      <c r="J333">
+        <v>3.6</v>
+      </c>
+      <c r="K333">
+        <v>3.6</v>
+      </c>
+      <c r="L333">
+        <v>1.8</v>
+      </c>
+      <c r="M333">
         <v>4</v>
       </c>
-      <c r="H333">
-        <v>2</v>
-      </c>
-      <c r="I333" t="s">
-        <v>52</v>
-      </c>
-      <c r="J333">
-        <v>1.8</v>
-      </c>
-      <c r="K333">
+      <c r="N333">
         <v>3.75</v>
       </c>
-      <c r="L333">
-        <v>3.4</v>
-      </c>
-      <c r="M333">
-        <v>1.75</v>
-      </c>
-      <c r="N333">
-        <v>4</v>
-      </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="P333">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q333">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R333">
+        <v>1.925</v>
+      </c>
+      <c r="S333">
+        <v>2.5</v>
+      </c>
+      <c r="T333">
         <v>1.95</v>
       </c>
-      <c r="S333">
-        <v>3.25</v>
-      </c>
-      <c r="T333">
-        <v>1.975</v>
-      </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29272,7 +29272,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6876948</v>
+        <v>6876970</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29281,58 +29281,58 @@
         <v>45318.5</v>
       </c>
       <c r="E335" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F335" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="s">
         <v>52</v>
       </c>
       <c r="J335">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K335">
         <v>3.6</v>
       </c>
       <c r="L335">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M335">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N335">
         <v>3.6</v>
       </c>
       <c r="O335">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P335">
         <v>0.25</v>
       </c>
       <c r="Q335">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R335">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S335">
         <v>2.75</v>
       </c>
       <c r="T335">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U335">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -29341,16 +29341,16 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29358,7 +29358,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6876971</v>
+        <v>6876948</v>
       </c>
       <c r="C336" t="s">
         <v>27</v>
@@ -29367,76 +29367,76 @@
         <v>45318.5</v>
       </c>
       <c r="E336" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F336" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G336">
         <v>2</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J336">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="K336">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L336">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M336">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N336">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O336">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P336">
         <v>0.25</v>
       </c>
       <c r="Q336">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R336">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S336">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T336">
+        <v>1.925</v>
+      </c>
+      <c r="U336">
         <v>1.875</v>
       </c>
-      <c r="U336">
-        <v>1.925</v>
-      </c>
       <c r="V336">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W336">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="Z336">
+        <v>-1</v>
+      </c>
+      <c r="AA336">
+        <v>0.4625</v>
+      </c>
+      <c r="AB336">
         <v>-0.5</v>
-      </c>
-      <c r="AA336">
-        <v>0.875</v>
-      </c>
-      <c r="AB336">
-        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -29788,7 +29788,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6876952</v>
+        <v>6876971</v>
       </c>
       <c r="C341" t="s">
         <v>27</v>
@@ -29797,73 +29797,73 @@
         <v>45318.5</v>
       </c>
       <c r="E341" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F341" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341">
         <v>2</v>
       </c>
       <c r="I341" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J341">
+        <v>2.625</v>
+      </c>
+      <c r="K341">
+        <v>3.2</v>
+      </c>
+      <c r="L341">
+        <v>2.4</v>
+      </c>
+      <c r="M341">
+        <v>2.8</v>
+      </c>
+      <c r="N341">
+        <v>3.2</v>
+      </c>
+      <c r="O341">
         <v>2.25</v>
       </c>
-      <c r="K341">
-        <v>3.25</v>
-      </c>
-      <c r="L341">
-        <v>2.75</v>
-      </c>
-      <c r="M341">
-        <v>2.45</v>
-      </c>
-      <c r="N341">
-        <v>2.9</v>
-      </c>
-      <c r="O341">
-        <v>2.75</v>
-      </c>
       <c r="P341">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q341">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R341">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S341">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T341">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U341">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V341">
         <v>-1</v>
       </c>
       <c r="W341">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X341">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z341">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA341">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB341">
         <v>-1</v>
@@ -29874,7 +29874,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6876970</v>
+        <v>6876952</v>
       </c>
       <c r="C342" t="s">
         <v>27</v>
@@ -29883,76 +29883,76 @@
         <v>45318.5</v>
       </c>
       <c r="E342" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F342" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G342">
         <v>1</v>
       </c>
       <c r="H342">
+        <v>2</v>
+      </c>
+      <c r="I342" t="s">
+        <v>54</v>
+      </c>
+      <c r="J342">
+        <v>2.25</v>
+      </c>
+      <c r="K342">
+        <v>3.25</v>
+      </c>
+      <c r="L342">
+        <v>2.75</v>
+      </c>
+      <c r="M342">
+        <v>2.45</v>
+      </c>
+      <c r="N342">
+        <v>2.9</v>
+      </c>
+      <c r="O342">
+        <v>2.75</v>
+      </c>
+      <c r="P342">
         <v>0</v>
       </c>
-      <c r="I342" t="s">
-        <v>52</v>
-      </c>
-      <c r="J342">
-        <v>2.3</v>
-      </c>
-      <c r="K342">
-        <v>3.6</v>
-      </c>
-      <c r="L342">
-        <v>2.5</v>
-      </c>
-      <c r="M342">
-        <v>2.6</v>
-      </c>
-      <c r="N342">
-        <v>3.6</v>
-      </c>
-      <c r="O342">
-        <v>2.2</v>
-      </c>
-      <c r="P342">
-        <v>0.25</v>
-      </c>
       <c r="Q342">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R342">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S342">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T342">
+        <v>1.825</v>
+      </c>
+      <c r="U342">
         <v>1.975</v>
       </c>
-      <c r="U342">
-        <v>1.825</v>
-      </c>
       <c r="V342">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y342">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB342">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -30562,7 +30562,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6877055</v>
+        <v>6877054</v>
       </c>
       <c r="C350" t="s">
         <v>27</v>
@@ -30571,19 +30571,19 @@
         <v>45325.5</v>
       </c>
       <c r="E350" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G350">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J350">
         <v>2.4</v>
@@ -30595,52 +30595,52 @@
         <v>2.4</v>
       </c>
       <c r="M350">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="N350">
         <v>3.6</v>
       </c>
       <c r="O350">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P350">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q350">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R350">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S350">
         <v>2.5</v>
       </c>
       <c r="T350">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U350">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V350">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA350">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="351" spans="1:28">
@@ -30648,7 +30648,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6877056</v>
+        <v>6877055</v>
       </c>
       <c r="C351" t="s">
         <v>27</v>
@@ -30657,16 +30657,16 @@
         <v>45325.5</v>
       </c>
       <c r="E351" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F351" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I351" t="s">
         <v>52</v>
@@ -30681,34 +30681,34 @@
         <v>2.4</v>
       </c>
       <c r="M351">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
+        <v>3.6</v>
+      </c>
+      <c r="O351">
         <v>3.1</v>
       </c>
-      <c r="O351">
-        <v>2.2</v>
-      </c>
       <c r="P351">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q351">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R351">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T351">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U351">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V351">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
       <c r="W351">
         <v>-1</v>
@@ -30717,13 +30717,13 @@
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB351">
         <v>-1</v>
@@ -30734,7 +30734,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6877048</v>
+        <v>6877056</v>
       </c>
       <c r="C352" t="s">
         <v>27</v>
@@ -30743,40 +30743,40 @@
         <v>45325.5</v>
       </c>
       <c r="E352" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F352" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="s">
         <v>52</v>
       </c>
       <c r="J352">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K352">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L352">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M352">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N352">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O352">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="P352">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q352">
         <v>1.825</v>
@@ -30785,16 +30785,16 @@
         <v>1.975</v>
       </c>
       <c r="S352">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T352">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V352">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -30809,7 +30809,7 @@
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB352">
         <v>-1</v>
@@ -30820,7 +30820,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6877054</v>
+        <v>6877048</v>
       </c>
       <c r="C353" t="s">
         <v>27</v>
@@ -30829,76 +30829,76 @@
         <v>45325.5</v>
       </c>
       <c r="E353" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F353" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J353">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K353">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L353">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M353">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="N353">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O353">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q353">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S353">
         <v>2.5</v>
       </c>
       <c r="T353">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U353">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V353">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W353">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB353">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -44236,7 +44236,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7935759</v>
+        <v>7791211</v>
       </c>
       <c r="C509" t="s">
         <v>27</v>
@@ -44245,76 +44245,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E509" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F509" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J509">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="K509">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L509">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="M509">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N509">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O509">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="P509">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q509">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R509">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S509">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T509">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U509">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V509">
         <v>-1</v>
       </c>
       <c r="W509">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X509">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y509">
         <v>-1</v>
       </c>
       <c r="Z509">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA509">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB509">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="510" spans="1:28">
@@ -44322,7 +44322,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7861085</v>
+        <v>7806644</v>
       </c>
       <c r="C510" t="s">
         <v>27</v>
@@ -44331,76 +44331,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E510" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F510" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G510">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H510">
+        <v>1</v>
+      </c>
+      <c r="I510" t="s">
+        <v>54</v>
+      </c>
+      <c r="J510">
+        <v>2.2</v>
+      </c>
+      <c r="K510">
+        <v>3.3</v>
+      </c>
+      <c r="L510">
+        <v>2.8</v>
+      </c>
+      <c r="M510">
+        <v>2.625</v>
+      </c>
+      <c r="N510">
+        <v>3.2</v>
+      </c>
+      <c r="O510">
+        <v>2.375</v>
+      </c>
+      <c r="P510">
         <v>0</v>
       </c>
-      <c r="I510" t="s">
-        <v>52</v>
-      </c>
-      <c r="J510">
-        <v>1.727</v>
-      </c>
-      <c r="K510">
-        <v>3.5</v>
-      </c>
-      <c r="L510">
-        <v>4</v>
-      </c>
-      <c r="M510">
-        <v>1.5</v>
-      </c>
-      <c r="N510">
-        <v>3.8</v>
-      </c>
-      <c r="O510">
-        <v>5.25</v>
-      </c>
-      <c r="P510">
-        <v>-1</v>
-      </c>
       <c r="Q510">
+        <v>2.025</v>
+      </c>
+      <c r="R510">
+        <v>1.775</v>
+      </c>
+      <c r="S510">
+        <v>2.25</v>
+      </c>
+      <c r="T510">
         <v>1.975</v>
       </c>
-      <c r="R510">
+      <c r="U510">
         <v>1.825</v>
       </c>
-      <c r="S510">
-        <v>2.5</v>
-      </c>
-      <c r="T510">
-        <v>1.925</v>
-      </c>
-      <c r="U510">
-        <v>1.875</v>
-      </c>
       <c r="V510">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W510">
         <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y510">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA510">
         <v>-1</v>
       </c>
       <c r="AB510">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="511" spans="1:28">
@@ -44494,7 +44494,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7806644</v>
+        <v>7861085</v>
       </c>
       <c r="C512" t="s">
         <v>27</v>
@@ -44503,76 +44503,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E512" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F512" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G512">
+        <v>2</v>
+      </c>
+      <c r="H512">
         <v>0</v>
       </c>
-      <c r="H512">
-        <v>1</v>
-      </c>
       <c r="I512" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J512">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K512">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L512">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M512">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N512">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O512">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="P512">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q512">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R512">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S512">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T512">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U512">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V512">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W512">
         <v>-1</v>
       </c>
       <c r="X512">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y512">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z512">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA512">
         <v>-1</v>
       </c>
       <c r="AB512">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="513" spans="1:28">
@@ -44580,7 +44580,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7791211</v>
+        <v>7935759</v>
       </c>
       <c r="C513" t="s">
         <v>27</v>
@@ -44589,76 +44589,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E513" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F513" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J513">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="K513">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L513">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="M513">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N513">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O513">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="P513">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q513">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R513">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S513">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T513">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U513">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V513">
         <v>-1</v>
       </c>
       <c r="W513">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X513">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y513">
         <v>-1</v>
       </c>
       <c r="Z513">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA513">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB513">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="514" spans="1:28">
@@ -46472,7 +46472,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>8026092</v>
+        <v>8010134</v>
       </c>
       <c r="C535" t="s">
         <v>27</v>
@@ -46481,76 +46481,76 @@
         <v>45400.65625</v>
       </c>
       <c r="E535" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F535" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G535">
         <v>0</v>
       </c>
       <c r="H535">
+        <v>0</v>
+      </c>
+      <c r="I535" t="s">
+        <v>53</v>
+      </c>
+      <c r="J535">
+        <v>2.3</v>
+      </c>
+      <c r="K535">
+        <v>3.4</v>
+      </c>
+      <c r="L535">
+        <v>2.6</v>
+      </c>
+      <c r="M535">
+        <v>3.5</v>
+      </c>
+      <c r="N535">
+        <v>3.4</v>
+      </c>
+      <c r="O535">
+        <v>1.85</v>
+      </c>
+      <c r="P535">
+        <v>0.5</v>
+      </c>
+      <c r="Q535">
+        <v>1.875</v>
+      </c>
+      <c r="R535">
+        <v>1.925</v>
+      </c>
+      <c r="S535">
+        <v>2.25</v>
+      </c>
+      <c r="T535">
+        <v>1.8</v>
+      </c>
+      <c r="U535">
+        <v>2</v>
+      </c>
+      <c r="V535">
+        <v>-1</v>
+      </c>
+      <c r="W535">
+        <v>2.4</v>
+      </c>
+      <c r="X535">
+        <v>-1</v>
+      </c>
+      <c r="Y535">
+        <v>0.875</v>
+      </c>
+      <c r="Z535">
+        <v>-1</v>
+      </c>
+      <c r="AA535">
+        <v>-1</v>
+      </c>
+      <c r="AB535">
         <v>1</v>
-      </c>
-      <c r="I535" t="s">
-        <v>54</v>
-      </c>
-      <c r="J535">
-        <v>2.5</v>
-      </c>
-      <c r="K535">
-        <v>3.75</v>
-      </c>
-      <c r="L535">
-        <v>2.25</v>
-      </c>
-      <c r="M535">
-        <v>2.15</v>
-      </c>
-      <c r="N535">
-        <v>3.75</v>
-      </c>
-      <c r="O535">
-        <v>2.625</v>
-      </c>
-      <c r="P535">
-        <v>-0.25</v>
-      </c>
-      <c r="Q535">
-        <v>2</v>
-      </c>
-      <c r="R535">
-        <v>1.8</v>
-      </c>
-      <c r="S535">
-        <v>2.5</v>
-      </c>
-      <c r="T535">
-        <v>1.975</v>
-      </c>
-      <c r="U535">
-        <v>1.825</v>
-      </c>
-      <c r="V535">
-        <v>-1</v>
-      </c>
-      <c r="W535">
-        <v>-1</v>
-      </c>
-      <c r="X535">
-        <v>1.625</v>
-      </c>
-      <c r="Y535">
-        <v>-1</v>
-      </c>
-      <c r="Z535">
-        <v>0.8</v>
-      </c>
-      <c r="AA535">
-        <v>-1</v>
-      </c>
-      <c r="AB535">
-        <v>0.825</v>
       </c>
     </row>
     <row r="536" spans="1:28">
@@ -46558,7 +46558,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>8010134</v>
+        <v>8026092</v>
       </c>
       <c r="C536" t="s">
         <v>27</v>
@@ -46567,76 +46567,76 @@
         <v>45400.65625</v>
       </c>
       <c r="E536" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F536" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G536">
         <v>0</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I536" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J536">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K536">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L536">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M536">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N536">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O536">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="P536">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q536">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R536">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S536">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T536">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U536">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V536">
         <v>-1</v>
       </c>
       <c r="W536">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X536">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y536">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z536">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA536">
         <v>-1</v>
       </c>
       <c r="AB536">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="537" spans="1:28">
@@ -46816,7 +46816,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6882961</v>
+        <v>6882959</v>
       </c>
       <c r="C539" t="s">
         <v>27</v>
@@ -46825,76 +46825,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E539" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F539" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G539">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J539">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="K539">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L539">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M539">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N539">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O539">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="P539">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q539">
+        <v>1.95</v>
+      </c>
+      <c r="R539">
         <v>1.85</v>
       </c>
-      <c r="R539">
-        <v>1.95</v>
-      </c>
       <c r="S539">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T539">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U539">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V539">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W539">
         <v>-1</v>
       </c>
       <c r="X539">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y539">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z539">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA539">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB539">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="540" spans="1:28">
@@ -46902,7 +46902,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6882959</v>
+        <v>6882961</v>
       </c>
       <c r="C540" t="s">
         <v>27</v>
@@ -46911,76 +46911,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E540" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F540" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G540">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J540">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="K540">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L540">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M540">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N540">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O540">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="P540">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q540">
+        <v>1.85</v>
+      </c>
+      <c r="R540">
         <v>1.95</v>
       </c>
-      <c r="R540">
-        <v>1.85</v>
-      </c>
       <c r="S540">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T540">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U540">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V540">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W540">
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z540">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA540">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB540">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="541" spans="1:28">
@@ -47160,7 +47160,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>6882952</v>
+        <v>6882960</v>
       </c>
       <c r="C543" t="s">
         <v>27</v>
@@ -47169,58 +47169,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E543" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F543" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G543">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="s">
         <v>52</v>
       </c>
       <c r="J543">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K543">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L543">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M543">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="N543">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O543">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P543">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q543">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R543">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S543">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T543">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U543">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V543">
-        <v>0.95</v>
+        <v>0.444</v>
       </c>
       <c r="W543">
         <v>-1</v>
@@ -47229,13 +47229,13 @@
         <v>-1</v>
       </c>
       <c r="Y543">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z543">
         <v>-1</v>
       </c>
       <c r="AA543">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB543">
         <v>-1</v>
@@ -47246,7 +47246,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>6882960</v>
+        <v>6882958</v>
       </c>
       <c r="C544" t="s">
         <v>27</v>
@@ -47255,58 +47255,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E544" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F544" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G544">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="s">
         <v>52</v>
       </c>
       <c r="J544">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="K544">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L544">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M544">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="N544">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O544">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P544">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q544">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R544">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S544">
         <v>3.25</v>
       </c>
       <c r="T544">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U544">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V544">
-        <v>0.444</v>
+        <v>0.7</v>
       </c>
       <c r="W544">
         <v>-1</v>
@@ -47315,13 +47315,13 @@
         <v>-1</v>
       </c>
       <c r="Y544">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z544">
         <v>-1</v>
       </c>
       <c r="AA544">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB544">
         <v>-1</v>
@@ -47332,7 +47332,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6882958</v>
+        <v>6882954</v>
       </c>
       <c r="C545" t="s">
         <v>27</v>
@@ -47341,55 +47341,55 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E545" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F545" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G545">
         <v>5</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I545" t="s">
         <v>52</v>
       </c>
       <c r="J545">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K545">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L545">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M545">
         <v>1.7</v>
       </c>
       <c r="N545">
+        <v>3.6</v>
+      </c>
+      <c r="O545">
         <v>4</v>
-      </c>
-      <c r="O545">
-        <v>3.6</v>
       </c>
       <c r="P545">
         <v>-0.75</v>
       </c>
       <c r="Q545">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R545">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S545">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T545">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U545">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V545">
         <v>0.7</v>
@@ -47401,13 +47401,13 @@
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z545">
         <v>-1</v>
       </c>
       <c r="AA545">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB545">
         <v>-1</v>
@@ -47418,7 +47418,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6882954</v>
+        <v>6882953</v>
       </c>
       <c r="C546" t="s">
         <v>27</v>
@@ -47427,73 +47427,73 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E546" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F546" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G546">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I546" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J546">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="K546">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L546">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="M546">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="N546">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O546">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="P546">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q546">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R546">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S546">
         <v>2.5</v>
       </c>
       <c r="T546">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U546">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V546">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W546">
         <v>-1</v>
       </c>
       <c r="X546">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y546">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z546">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA546">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB546">
         <v>-1</v>
@@ -47504,7 +47504,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6882953</v>
+        <v>6882952</v>
       </c>
       <c r="C547" t="s">
         <v>27</v>
@@ -47513,40 +47513,40 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E547" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F547" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G547">
+        <v>2</v>
+      </c>
+      <c r="H547">
         <v>1</v>
       </c>
-      <c r="H547">
+      <c r="I547" t="s">
+        <v>52</v>
+      </c>
+      <c r="J547">
+        <v>2.1</v>
+      </c>
+      <c r="K547">
+        <v>3.6</v>
+      </c>
+      <c r="L547">
+        <v>2.8</v>
+      </c>
+      <c r="M547">
+        <v>1.95</v>
+      </c>
+      <c r="N547">
+        <v>3.6</v>
+      </c>
+      <c r="O547">
         <v>3</v>
       </c>
-      <c r="I547" t="s">
-        <v>54</v>
-      </c>
-      <c r="J547">
-        <v>7</v>
-      </c>
-      <c r="K547">
-        <v>4.5</v>
-      </c>
-      <c r="L547">
-        <v>1.333</v>
-      </c>
-      <c r="M547">
-        <v>8</v>
-      </c>
-      <c r="N547">
-        <v>4.333</v>
-      </c>
-      <c r="O547">
-        <v>1.333</v>
-      </c>
       <c r="P547">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q547">
         <v>1.75</v>
@@ -47564,19 +47564,19 @@
         <v>1.95</v>
       </c>
       <c r="V547">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W547">
         <v>-1</v>
       </c>
       <c r="X547">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y547">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z547">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA547">
         <v>0.75</v>

--- a/England National League South/England National League South.xlsx
+++ b/England National League South/England National League South.xlsx
@@ -5536,7 +5536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6876161</v>
+        <v>6876162</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5545,58 +5545,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
         <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
       </c>
       <c r="J59">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K59">
         <v>3.5</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M59">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N59">
         <v>3.5</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="P59">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
         <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5605,16 +5605,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5622,7 +5622,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6876162</v>
+        <v>6876164</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5631,76 +5631,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J60">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K60">
         <v>3.5</v>
       </c>
       <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>2.05</v>
+      </c>
+      <c r="N60">
+        <v>3.6</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>-0.25</v>
+      </c>
+      <c r="Q60">
+        <v>1.825</v>
+      </c>
+      <c r="R60">
+        <v>1.975</v>
+      </c>
+      <c r="S60">
         <v>2.75</v>
       </c>
-      <c r="M60">
-        <v>2.55</v>
-      </c>
-      <c r="N60">
-        <v>3.5</v>
-      </c>
-      <c r="O60">
-        <v>2.45</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
+      <c r="T60">
         <v>1.975</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <v>1.825</v>
       </c>
-      <c r="S60">
-        <v>2.5</v>
-      </c>
-      <c r="T60">
-        <v>1.825</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
       <c r="V60">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
       <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>0.825</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5708,7 +5708,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6876164</v>
+        <v>6876161</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5717,76 +5717,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J61">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K61">
         <v>3.5</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="N61">
+        <v>3.5</v>
+      </c>
+      <c r="O61">
         <v>3.6</v>
       </c>
-      <c r="O61">
-        <v>3</v>
-      </c>
       <c r="P61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6876166</v>
+        <v>6876167</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5889,19 +5889,19 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5913,52 +5913,52 @@
         <v>2.8</v>
       </c>
       <c r="M63">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O63">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
         <v>2.5</v>
       </c>
       <c r="T63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5966,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6876167</v>
+        <v>6876168</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5975,76 +5975,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="N64">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z64">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6052,7 +6052,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6876168</v>
+        <v>6875877</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6061,58 +6061,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K65">
+        <v>3.5</v>
+      </c>
+      <c r="L65">
+        <v>2.2</v>
+      </c>
+      <c r="M65">
+        <v>3.2</v>
+      </c>
+      <c r="N65">
         <v>3.6</v>
       </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
-      <c r="M65">
-        <v>1.615</v>
-      </c>
-      <c r="N65">
-        <v>4.2</v>
-      </c>
       <c r="O65">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q65">
+        <v>1.775</v>
+      </c>
+      <c r="R65">
+        <v>2.025</v>
+      </c>
+      <c r="S65">
+        <v>2.75</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
       </c>
-      <c r="R65">
-        <v>2</v>
-      </c>
-      <c r="S65">
-        <v>3</v>
-      </c>
-      <c r="T65">
-        <v>1.95</v>
-      </c>
-      <c r="U65">
-        <v>1.85</v>
-      </c>
       <c r="V65">
-        <v>0.615</v>
+        <v>2.2</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6121,16 +6121,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6138,7 +6138,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6875697</v>
+        <v>6876166</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6147,58 +6147,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
       </c>
       <c r="J66">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K66">
         <v>3.5</v>
       </c>
       <c r="L66">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="N66">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O66">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="P66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
         <v>2.5</v>
       </c>
       <c r="T66">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6207,13 +6207,13 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6310,7 +6310,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6876163</v>
+        <v>6875697</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6319,76 +6319,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J68">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M68">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
+        <v>1.975</v>
+      </c>
+      <c r="R68">
         <v>1.825</v>
-      </c>
-      <c r="R68">
-        <v>1.975</v>
       </c>
       <c r="S68">
         <v>2.5</v>
       </c>
       <c r="T68">
+        <v>1.75</v>
+      </c>
+      <c r="U68">
         <v>1.95</v>
       </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
       <c r="V68">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6396,7 +6396,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6875803</v>
+        <v>6876163</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6405,76 +6405,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J69">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O69">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R69">
         <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6482,7 +6482,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6875877</v>
+        <v>6875803</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6491,58 +6491,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>52</v>
       </c>
       <c r="J70">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="K70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="P70">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q70">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
         <v>2.75</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6551,16 +6551,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6998,7 +6998,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6876172</v>
+        <v>6875806</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7007,73 +7007,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J76">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K76">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
         <v>2.5</v>
       </c>
       <c r="T76">
+        <v>1.925</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
       <c r="V76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7084,7 +7084,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6875806</v>
+        <v>6876172</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7093,73 +7093,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J77">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K77">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L77">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O77">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
         <v>2.5</v>
       </c>
       <c r="T77">
+        <v>1.875</v>
+      </c>
+      <c r="U77">
         <v>1.925</v>
       </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
       <c r="V77">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7944,7 +7944,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6876179</v>
+        <v>6876178</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7953,40 +7953,40 @@
         <v>45174.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>53</v>
+      </c>
+      <c r="J87">
+        <v>2.2</v>
+      </c>
+      <c r="K87">
+        <v>3.25</v>
+      </c>
+      <c r="L87">
+        <v>2.8</v>
+      </c>
+      <c r="M87">
+        <v>2.8</v>
+      </c>
+      <c r="N87">
+        <v>3.3</v>
+      </c>
+      <c r="O87">
+        <v>2.3</v>
+      </c>
+      <c r="P87">
         <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87">
-        <v>2.05</v>
-      </c>
-      <c r="K87">
-        <v>3.4</v>
-      </c>
-      <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>2.05</v>
-      </c>
-      <c r="N87">
-        <v>3.4</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
       </c>
       <c r="Q87">
         <v>2.1</v>
@@ -7995,34 +7995,34 @@
         <v>1.7</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8030,7 +8030,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6876178</v>
+        <v>6875879</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8039,73 +8039,73 @@
         <v>45174.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J88">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K88">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L88">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O88">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R88">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
         <v>2.25</v>
       </c>
       <c r="T88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8116,7 +8116,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6875879</v>
+        <v>6875807</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8125,76 +8125,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
         <v>54</v>
       </c>
       <c r="J89">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="K89">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="L89">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="M89">
+        <v>1.65</v>
+      </c>
+      <c r="N89">
+        <v>3.8</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>-0.75</v>
+      </c>
+      <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>2.75</v>
+      </c>
+      <c r="T89">
+        <v>1.8</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>3</v>
       </c>
-      <c r="N89">
-        <v>3.2</v>
-      </c>
-      <c r="O89">
-        <v>2.1</v>
-      </c>
-      <c r="P89">
-        <v>0.25</v>
-      </c>
-      <c r="Q89">
-        <v>1.9</v>
-      </c>
-      <c r="R89">
-        <v>1.9</v>
-      </c>
-      <c r="S89">
-        <v>2.25</v>
-      </c>
-      <c r="T89">
-        <v>1.85</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>-1</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>1.1</v>
-      </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8202,7 +8202,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6875807</v>
+        <v>6876182</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8211,76 +8211,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J90">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K90">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="N90">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8288,7 +8288,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6876182</v>
+        <v>6876183</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8297,76 +8297,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K91">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L91">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N91">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T91">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8374,7 +8374,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6876183</v>
+        <v>6876179</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8383,13 +8383,13 @@
         <v>45174.65625</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8398,43 +8398,43 @@
         <v>52</v>
       </c>
       <c r="J92">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="K92">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q92">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T92">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8443,7 +8443,7 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
@@ -8452,7 +8452,7 @@
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -20500,7 +20500,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6876293</v>
+        <v>6876299</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20509,34 +20509,34 @@
         <v>45262.5</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J233">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K233">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L233">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M233">
         <v>2</v>
       </c>
       <c r="N233">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O233">
         <v>3.25</v>
@@ -20545,37 +20545,37 @@
         <v>-0.25</v>
       </c>
       <c r="Q233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T233">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U233">
         <v>1.95</v>
       </c>
       <c r="V233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z233">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -20586,7 +20586,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6876299</v>
+        <v>6876293</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20595,34 +20595,34 @@
         <v>45262.5</v>
       </c>
       <c r="E234" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G234">
+        <v>2</v>
+      </c>
+      <c r="H234">
         <v>3</v>
       </c>
-      <c r="H234">
-        <v>1</v>
-      </c>
       <c r="I234" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J234">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K234">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L234">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M234">
         <v>2</v>
       </c>
       <c r="N234">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O234">
         <v>3.25</v>
@@ -20631,37 +20631,37 @@
         <v>-0.25</v>
       </c>
       <c r="Q234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T234">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U234">
         <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA234">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB234">
         <v>-1</v>
@@ -22048,7 +22048,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876307</v>
+        <v>6875713</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22057,58 +22057,58 @@
         <v>45276.5</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="s">
         <v>52</v>
       </c>
       <c r="J251">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K251">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L251">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="M251">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N251">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P251">
         <v>-0.5</v>
       </c>
       <c r="Q251">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T251">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V251">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22117,16 +22117,16 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22134,7 +22134,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876308</v>
+        <v>6876307</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22143,76 +22143,76 @@
         <v>45276.5</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J252">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="K252">
+        <v>4.2</v>
+      </c>
+      <c r="L252">
+        <v>6</v>
+      </c>
+      <c r="M252">
+        <v>1.909</v>
+      </c>
+      <c r="N252">
         <v>3.5</v>
       </c>
-      <c r="L252">
-        <v>2.8</v>
-      </c>
-      <c r="M252">
-        <v>2.05</v>
-      </c>
-      <c r="N252">
-        <v>3.25</v>
-      </c>
       <c r="O252">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P252">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q252">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R252">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U252">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z252">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22220,7 +22220,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6875713</v>
+        <v>6876308</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22229,76 +22229,76 @@
         <v>45276.5</v>
       </c>
       <c r="E253" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J253">
         <v>2.2</v>
       </c>
       <c r="K253">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L253">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M253">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N253">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O253">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P253">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q253">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S253">
         <v>2.5</v>
       </c>
       <c r="T253">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U253">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22306,7 +22306,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6875893</v>
+        <v>6876302</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22315,76 +22315,76 @@
         <v>45276.5</v>
       </c>
       <c r="E254" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F254" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="s">
         <v>53</v>
       </c>
       <c r="J254">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K254">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M254">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="N254">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O254">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="P254">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T254">
+        <v>1.975</v>
+      </c>
+      <c r="U254">
         <v>1.825</v>
       </c>
-      <c r="U254">
-        <v>1.975</v>
-      </c>
       <c r="V254">
         <v>-1</v>
       </c>
       <c r="W254">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z254">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22392,7 +22392,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6876306</v>
+        <v>6876303</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22401,61 +22401,61 @@
         <v>45276.5</v>
       </c>
       <c r="E255" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G255">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H255">
         <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J255">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="K255">
         <v>3.4</v>
       </c>
       <c r="L255">
+        <v>2.2</v>
+      </c>
+      <c r="M255">
+        <v>3.8</v>
+      </c>
+      <c r="N255">
         <v>3.3</v>
       </c>
-      <c r="M255">
-        <v>2.375</v>
-      </c>
-      <c r="N255">
-        <v>3.4</v>
-      </c>
       <c r="O255">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="P255">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q255">
         <v>1.975</v>
       </c>
       <c r="R255">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
         <v>2.5</v>
       </c>
       <c r="T255">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -22467,10 +22467,10 @@
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22478,7 +22478,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6876302</v>
+        <v>6876306</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22487,76 +22487,76 @@
         <v>45276.5</v>
       </c>
       <c r="E256" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J256">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K256">
         <v>3.4</v>
       </c>
       <c r="L256">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="M256">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N256">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O256">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q256">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R256">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S256">
         <v>2.5</v>
       </c>
       <c r="T256">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U256">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W256">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22564,7 +22564,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876304</v>
+        <v>6876305</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22573,16 +22573,16 @@
         <v>45276.5</v>
       </c>
       <c r="E257" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="s">
         <v>52</v>
@@ -22594,28 +22594,28 @@
         <v>3.4</v>
       </c>
       <c r="L257">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N257">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O257">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="P257">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q257">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R257">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T257">
         <v>1.975</v>
@@ -22624,7 +22624,7 @@
         <v>1.825</v>
       </c>
       <c r="V257">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -22633,16 +22633,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22650,7 +22650,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6875835</v>
+        <v>6876304</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22659,76 +22659,76 @@
         <v>45276.5</v>
       </c>
       <c r="E258" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F258" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J258">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="K258">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L258">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="M258">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N258">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O258">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P258">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q258">
+        <v>1.775</v>
+      </c>
+      <c r="R258">
         <v>2.025</v>
       </c>
-      <c r="R258">
-        <v>1.775</v>
-      </c>
       <c r="S258">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T258">
+        <v>1.975</v>
+      </c>
+      <c r="U258">
         <v>1.825</v>
       </c>
-      <c r="U258">
-        <v>1.975</v>
-      </c>
       <c r="V258">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W258">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z258">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -22736,7 +22736,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6876303</v>
+        <v>6875835</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22745,76 +22745,76 @@
         <v>45276.5</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="s">
         <v>53</v>
       </c>
       <c r="J259">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="K259">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L259">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M259">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N259">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O259">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="P259">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q259">
+        <v>2.025</v>
+      </c>
+      <c r="R259">
+        <v>1.775</v>
+      </c>
+      <c r="S259">
+        <v>2.75</v>
+      </c>
+      <c r="T259">
+        <v>1.825</v>
+      </c>
+      <c r="U259">
         <v>1.975</v>
       </c>
-      <c r="R259">
-        <v>1.825</v>
-      </c>
-      <c r="S259">
+      <c r="V259">
+        <v>-1</v>
+      </c>
+      <c r="W259">
         <v>2.5</v>
       </c>
-      <c r="T259">
-        <v>1.95</v>
-      </c>
-      <c r="U259">
-        <v>1.85</v>
-      </c>
-      <c r="V259">
-        <v>-1</v>
-      </c>
-      <c r="W259">
-        <v>2.3</v>
-      </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB259">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22822,7 +22822,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6876305</v>
+        <v>6875893</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22831,76 +22831,76 @@
         <v>45276.5</v>
       </c>
       <c r="E260" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J260">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K260">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L260">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="N260">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O260">
+        <v>6.5</v>
+      </c>
+      <c r="P260">
+        <v>-1.25</v>
+      </c>
+      <c r="Q260">
+        <v>1.95</v>
+      </c>
+      <c r="R260">
         <v>1.85</v>
-      </c>
-      <c r="P260">
-        <v>0.5</v>
-      </c>
-      <c r="Q260">
-        <v>1.9</v>
-      </c>
-      <c r="R260">
-        <v>1.9</v>
       </c>
       <c r="S260">
         <v>2.75</v>
       </c>
       <c r="T260">
+        <v>1.825</v>
+      </c>
+      <c r="U260">
         <v>1.975</v>
       </c>
-      <c r="U260">
-        <v>1.825</v>
-      </c>
       <c r="V260">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA260">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -26864,7 +26864,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7650283</v>
+        <v>7528935</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -26873,56 +26873,56 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E307" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F307" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="s">
         <v>54</v>
       </c>
       <c r="J307">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="K307">
         <v>3.5</v>
       </c>
       <c r="L307">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="M307">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N307">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O307">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="P307">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q307">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R307">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S307">
         <v>2.5</v>
       </c>
       <c r="T307">
+        <v>1.925</v>
+      </c>
+      <c r="U307">
         <v>1.875</v>
       </c>
-      <c r="U307">
-        <v>1.925</v>
-      </c>
       <c r="V307">
         <v>-1</v>
       </c>
@@ -26930,19 +26930,19 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>0.45</v>
+        <v>2.1</v>
       </c>
       <c r="Y307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB307">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:28">
@@ -26950,7 +26950,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7528935</v>
+        <v>7650283</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -26959,56 +26959,56 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E308" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F308" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
         <v>1</v>
-      </c>
-      <c r="H308">
-        <v>2</v>
       </c>
       <c r="I308" t="s">
         <v>54</v>
       </c>
       <c r="J308">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="K308">
         <v>3.5</v>
       </c>
       <c r="L308">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="M308">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N308">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O308">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="P308">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q308">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R308">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S308">
         <v>2.5</v>
       </c>
       <c r="T308">
+        <v>1.875</v>
+      </c>
+      <c r="U308">
         <v>1.925</v>
       </c>
-      <c r="U308">
-        <v>1.875</v>
-      </c>
       <c r="V308">
         <v>-1</v>
       </c>
@@ -27016,19 +27016,19 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>2.1</v>
+        <v>0.45</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z308">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA308">
+        <v>-1</v>
+      </c>
+      <c r="AB308">
         <v>0.925</v>
-      </c>
-      <c r="AB308">
-        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -28326,7 +28326,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6877044</v>
+        <v>6875844</v>
       </c>
       <c r="C324" t="s">
         <v>27</v>
@@ -28335,55 +28335,55 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E324" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F324" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="s">
         <v>54</v>
       </c>
       <c r="J324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K324">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M324">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N324">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O324">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="P324">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q324">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S324">
         <v>2.5</v>
       </c>
       <c r="T324">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U324">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V324">
         <v>-1</v>
@@ -28392,19 +28392,19 @@
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>1.625</v>
+        <v>1.45</v>
       </c>
       <c r="Y324">
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB324">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:28">
@@ -28412,7 +28412,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6875844</v>
+        <v>6876364</v>
       </c>
       <c r="C325" t="s">
         <v>27</v>
@@ -28421,76 +28421,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E325" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F325" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G325">
+        <v>2</v>
+      </c>
+      <c r="H325">
         <v>1</v>
       </c>
-      <c r="H325">
-        <v>2</v>
-      </c>
       <c r="I325" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J325">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="K325">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L325">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="M325">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N325">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O325">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="P325">
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T325">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U325">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V325">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -28498,7 +28498,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6876364</v>
+        <v>6876365</v>
       </c>
       <c r="C326" t="s">
         <v>27</v>
@@ -28507,76 +28507,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E326" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F326" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326">
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J326">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K326">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L326">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="M326">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N326">
         <v>3.3</v>
       </c>
       <c r="O326">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="P326">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q326">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R326">
+        <v>1.825</v>
+      </c>
+      <c r="S326">
+        <v>2.25</v>
+      </c>
+      <c r="T326">
         <v>1.8</v>
       </c>
-      <c r="S326">
-        <v>2.75</v>
-      </c>
-      <c r="T326">
-        <v>2</v>
-      </c>
       <c r="U326">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V326">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W326">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X326">
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA326">
+        <v>-0.5</v>
+      </c>
+      <c r="AB326">
         <v>0.5</v>
-      </c>
-      <c r="AB326">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -28584,7 +28584,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6876365</v>
+        <v>6877044</v>
       </c>
       <c r="C327" t="s">
         <v>27</v>
@@ -28593,76 +28593,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E327" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F327" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J327">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K327">
         <v>3.6</v>
       </c>
       <c r="L327">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M327">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N327">
         <v>3.3</v>
       </c>
       <c r="O327">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P327">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q327">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R327">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S327">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T327">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U327">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V327">
         <v>-1</v>
       </c>
       <c r="W327">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X327">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y327">
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA327">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:28">
@@ -29014,7 +29014,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876953</v>
+        <v>6876951</v>
       </c>
       <c r="C332" t="s">
         <v>27</v>
@@ -29023,76 +29023,76 @@
         <v>45318.5</v>
       </c>
       <c r="E332" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F332" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
+        <v>53</v>
+      </c>
+      <c r="J332">
+        <v>3.6</v>
+      </c>
+      <c r="K332">
+        <v>3.6</v>
+      </c>
+      <c r="L332">
+        <v>1.8</v>
+      </c>
+      <c r="M332">
         <v>4</v>
       </c>
-      <c r="H332">
-        <v>2</v>
-      </c>
-      <c r="I332" t="s">
-        <v>52</v>
-      </c>
-      <c r="J332">
-        <v>1.8</v>
-      </c>
-      <c r="K332">
+      <c r="N332">
         <v>3.75</v>
       </c>
-      <c r="L332">
-        <v>3.4</v>
-      </c>
-      <c r="M332">
-        <v>1.75</v>
-      </c>
-      <c r="N332">
-        <v>4</v>
-      </c>
       <c r="O332">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="P332">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q332">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R332">
+        <v>1.925</v>
+      </c>
+      <c r="S332">
+        <v>2.5</v>
+      </c>
+      <c r="T332">
         <v>1.95</v>
       </c>
-      <c r="S332">
-        <v>3.25</v>
-      </c>
-      <c r="T332">
-        <v>1.975</v>
-      </c>
       <c r="U332">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29100,7 +29100,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876951</v>
+        <v>6876953</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
@@ -29109,76 +29109,76 @@
         <v>45318.5</v>
       </c>
       <c r="E333" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F333" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J333">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K333">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L333">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
+        <v>1.75</v>
+      </c>
+      <c r="N333">
         <v>4</v>
       </c>
-      <c r="N333">
-        <v>3.75</v>
-      </c>
       <c r="O333">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="P333">
+        <v>-0.5</v>
+      </c>
+      <c r="Q333">
+        <v>1.75</v>
+      </c>
+      <c r="R333">
+        <v>1.95</v>
+      </c>
+      <c r="S333">
+        <v>3.25</v>
+      </c>
+      <c r="T333">
+        <v>1.975</v>
+      </c>
+      <c r="U333">
+        <v>1.825</v>
+      </c>
+      <c r="V333">
         <v>0.75</v>
       </c>
-      <c r="Q333">
-        <v>1.875</v>
-      </c>
-      <c r="R333">
-        <v>1.925</v>
-      </c>
-      <c r="S333">
-        <v>2.5</v>
-      </c>
-      <c r="T333">
-        <v>1.95</v>
-      </c>
-      <c r="U333">
-        <v>1.85</v>
-      </c>
-      <c r="V333">
-        <v>-1</v>
-      </c>
       <c r="W333">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB333">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29272,7 +29272,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6876970</v>
+        <v>6876948</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29281,58 +29281,58 @@
         <v>45318.5</v>
       </c>
       <c r="E335" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F335" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G335">
+        <v>2</v>
+      </c>
+      <c r="H335">
         <v>1</v>
-      </c>
-      <c r="H335">
-        <v>0</v>
       </c>
       <c r="I335" t="s">
         <v>52</v>
       </c>
       <c r="J335">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K335">
         <v>3.6</v>
       </c>
       <c r="L335">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M335">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N335">
         <v>3.6</v>
       </c>
       <c r="O335">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P335">
         <v>0.25</v>
       </c>
       <c r="Q335">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R335">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S335">
         <v>2.75</v>
       </c>
       <c r="T335">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V335">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -29341,16 +29341,16 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB335">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29358,7 +29358,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6876948</v>
+        <v>6876971</v>
       </c>
       <c r="C336" t="s">
         <v>27</v>
@@ -29367,76 +29367,76 @@
         <v>45318.5</v>
       </c>
       <c r="E336" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F336" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G336">
         <v>2</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J336">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="K336">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L336">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M336">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N336">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O336">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P336">
         <v>0.25</v>
       </c>
       <c r="Q336">
+        <v>1.775</v>
+      </c>
+      <c r="R336">
+        <v>2.025</v>
+      </c>
+      <c r="S336">
+        <v>2.25</v>
+      </c>
+      <c r="T336">
         <v>1.875</v>
       </c>
-      <c r="R336">
+      <c r="U336">
         <v>1.925</v>
       </c>
-      <c r="S336">
-        <v>2.75</v>
-      </c>
-      <c r="T336">
-        <v>1.925</v>
-      </c>
-      <c r="U336">
-        <v>1.875</v>
-      </c>
       <c r="V336">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
+        <v>0.3875</v>
+      </c>
+      <c r="Z336">
+        <v>-0.5</v>
+      </c>
+      <c r="AA336">
         <v>0.875</v>
       </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
-      <c r="AA336">
-        <v>0.4625</v>
-      </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -29788,7 +29788,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6876971</v>
+        <v>6876952</v>
       </c>
       <c r="C341" t="s">
         <v>27</v>
@@ -29797,73 +29797,73 @@
         <v>45318.5</v>
       </c>
       <c r="E341" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F341" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341">
         <v>2</v>
       </c>
       <c r="I341" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J341">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="K341">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L341">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M341">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N341">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O341">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="P341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q341">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R341">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S341">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T341">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U341">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V341">
         <v>-1</v>
       </c>
       <c r="W341">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X341">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y341">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA341">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB341">
         <v>-1</v>
@@ -29874,7 +29874,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6876952</v>
+        <v>6876970</v>
       </c>
       <c r="C342" t="s">
         <v>27</v>
@@ -29883,76 +29883,76 @@
         <v>45318.5</v>
       </c>
       <c r="E342" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F342" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G342">
         <v>1</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J342">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K342">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L342">
+        <v>2.5</v>
+      </c>
+      <c r="M342">
+        <v>2.6</v>
+      </c>
+      <c r="N342">
+        <v>3.6</v>
+      </c>
+      <c r="O342">
+        <v>2.2</v>
+      </c>
+      <c r="P342">
+        <v>0.25</v>
+      </c>
+      <c r="Q342">
+        <v>1.8</v>
+      </c>
+      <c r="R342">
+        <v>2</v>
+      </c>
+      <c r="S342">
         <v>2.75</v>
       </c>
-      <c r="M342">
-        <v>2.45</v>
-      </c>
-      <c r="N342">
-        <v>2.9</v>
-      </c>
-      <c r="O342">
-        <v>2.75</v>
-      </c>
-      <c r="P342">
-        <v>0</v>
-      </c>
-      <c r="Q342">
+      <c r="T342">
+        <v>1.975</v>
+      </c>
+      <c r="U342">
         <v>1.825</v>
       </c>
-      <c r="R342">
-        <v>1.975</v>
-      </c>
-      <c r="S342">
-        <v>2</v>
-      </c>
-      <c r="T342">
-        <v>1.825</v>
-      </c>
-      <c r="U342">
-        <v>1.975</v>
-      </c>
       <c r="V342">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z342">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
+        <v>-1</v>
+      </c>
+      <c r="AB342">
         <v>0.825</v>
-      </c>
-      <c r="AB342">
-        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -30562,7 +30562,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6877054</v>
+        <v>6877055</v>
       </c>
       <c r="C350" t="s">
         <v>27</v>
@@ -30571,19 +30571,19 @@
         <v>45325.5</v>
       </c>
       <c r="E350" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F350" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I350" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J350">
         <v>2.4</v>
@@ -30595,52 +30595,52 @@
         <v>2.4</v>
       </c>
       <c r="M350">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="N350">
         <v>3.6</v>
       </c>
       <c r="O350">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P350">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q350">
+        <v>1.75</v>
+      </c>
+      <c r="R350">
         <v>1.95</v>
-      </c>
-      <c r="R350">
-        <v>1.85</v>
       </c>
       <c r="S350">
         <v>2.5</v>
       </c>
       <c r="T350">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U350">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V350">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W350">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z350">
+        <v>-1</v>
+      </c>
+      <c r="AA350">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA350">
-        <v>-1</v>
-      </c>
       <c r="AB350">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:28">
@@ -30648,7 +30648,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6877055</v>
+        <v>6877056</v>
       </c>
       <c r="C351" t="s">
         <v>27</v>
@@ -30657,16 +30657,16 @@
         <v>45325.5</v>
       </c>
       <c r="E351" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F351" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I351" t="s">
         <v>52</v>
@@ -30681,34 +30681,34 @@
         <v>2.4</v>
       </c>
       <c r="M351">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N351">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P351">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q351">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R351">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S351">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T351">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U351">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V351">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="W351">
         <v>-1</v>
@@ -30717,13 +30717,13 @@
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB351">
         <v>-1</v>
@@ -30734,7 +30734,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6877056</v>
+        <v>6877048</v>
       </c>
       <c r="C352" t="s">
         <v>27</v>
@@ -30743,40 +30743,40 @@
         <v>45325.5</v>
       </c>
       <c r="E352" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F352" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="s">
         <v>52</v>
       </c>
       <c r="J352">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L352">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M352">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N352">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O352">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="P352">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q352">
         <v>1.825</v>
@@ -30785,16 +30785,16 @@
         <v>1.975</v>
       </c>
       <c r="S352">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T352">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U352">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -30809,7 +30809,7 @@
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB352">
         <v>-1</v>
@@ -30820,7 +30820,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6877048</v>
+        <v>6877054</v>
       </c>
       <c r="C353" t="s">
         <v>27</v>
@@ -30829,76 +30829,76 @@
         <v>45325.5</v>
       </c>
       <c r="E353" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G353">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J353">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K353">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L353">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M353">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="N353">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O353">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q353">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R353">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S353">
         <v>2.5</v>
       </c>
       <c r="T353">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V353">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA353">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -42000,7 +42000,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6881972</v>
+        <v>6881973</v>
       </c>
       <c r="C483" t="s">
         <v>27</v>
@@ -42009,76 +42009,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E483" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F483" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J483">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="K483">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L483">
         <v>5</v>
       </c>
       <c r="M483">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N483">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O483">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P483">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q483">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R483">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S483">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T483">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U483">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V483">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y483">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z483">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA483">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB483">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="484" spans="1:28">
@@ -42086,7 +42086,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6881973</v>
+        <v>6881972</v>
       </c>
       <c r="C484" t="s">
         <v>27</v>
@@ -42095,76 +42095,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E484" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F484" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G484">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J484">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="K484">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L484">
         <v>5</v>
       </c>
       <c r="M484">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N484">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O484">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P484">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q484">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R484">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S484">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T484">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U484">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V484">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W484">
         <v>-1</v>
       </c>
       <c r="X484">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y484">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA484">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB484">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="485" spans="1:28">
@@ -44494,7 +44494,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7861085</v>
+        <v>7935759</v>
       </c>
       <c r="C512" t="s">
         <v>27</v>
@@ -44503,40 +44503,40 @@
         <v>45391.65625</v>
       </c>
       <c r="E512" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F512" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G512">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J512">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="K512">
         <v>3.5</v>
       </c>
       <c r="L512">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M512">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N512">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O512">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="P512">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q512">
         <v>1.975</v>
@@ -44545,34 +44545,34 @@
         <v>1.825</v>
       </c>
       <c r="S512">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T512">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U512">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V512">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W512">
         <v>-1</v>
       </c>
       <c r="X512">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y512">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z512">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA512">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB512">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="513" spans="1:28">
@@ -44580,7 +44580,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7935759</v>
+        <v>7861085</v>
       </c>
       <c r="C513" t="s">
         <v>27</v>
@@ -44589,40 +44589,40 @@
         <v>45391.65625</v>
       </c>
       <c r="E513" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F513" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J513">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="K513">
         <v>3.5</v>
       </c>
       <c r="L513">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M513">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N513">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O513">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P513">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q513">
         <v>1.975</v>
@@ -44631,34 +44631,34 @@
         <v>1.825</v>
       </c>
       <c r="S513">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T513">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U513">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V513">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W513">
         <v>-1</v>
       </c>
       <c r="X513">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y513">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z513">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA513">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB513">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="514" spans="1:28">
@@ -45354,7 +45354,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>6882661</v>
+        <v>6882660</v>
       </c>
       <c r="C522" t="s">
         <v>27</v>
@@ -45363,76 +45363,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E522" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F522" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G522">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J522">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="K522">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L522">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M522">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N522">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O522">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="P522">
+        <v>0</v>
+      </c>
+      <c r="Q522">
+        <v>1.925</v>
+      </c>
+      <c r="R522">
+        <v>1.875</v>
+      </c>
+      <c r="S522">
+        <v>2.75</v>
+      </c>
+      <c r="T522">
+        <v>1.9</v>
+      </c>
+      <c r="U522">
+        <v>1.9</v>
+      </c>
+      <c r="V522">
+        <v>-1</v>
+      </c>
+      <c r="W522">
+        <v>-1</v>
+      </c>
+      <c r="X522">
+        <v>1.375</v>
+      </c>
+      <c r="Y522">
+        <v>-1</v>
+      </c>
+      <c r="Z522">
+        <v>0.875</v>
+      </c>
+      <c r="AA522">
+        <v>0.45</v>
+      </c>
+      <c r="AB522">
         <v>-0.5</v>
-      </c>
-      <c r="Q522">
-        <v>1.8</v>
-      </c>
-      <c r="R522">
-        <v>2</v>
-      </c>
-      <c r="S522">
-        <v>2.5</v>
-      </c>
-      <c r="T522">
-        <v>1.975</v>
-      </c>
-      <c r="U522">
-        <v>1.825</v>
-      </c>
-      <c r="V522">
-        <v>0.75</v>
-      </c>
-      <c r="W522">
-        <v>-1</v>
-      </c>
-      <c r="X522">
-        <v>-1</v>
-      </c>
-      <c r="Y522">
-        <v>0.8</v>
-      </c>
-      <c r="Z522">
-        <v>-1</v>
-      </c>
-      <c r="AA522">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB522">
-        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:28">
@@ -45440,7 +45440,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>6882660</v>
+        <v>6882661</v>
       </c>
       <c r="C523" t="s">
         <v>27</v>
@@ -45449,76 +45449,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E523" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F523" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G523">
+        <v>3</v>
+      </c>
+      <c r="H523">
         <v>1</v>
       </c>
-      <c r="H523">
-        <v>2</v>
-      </c>
       <c r="I523" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J523">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="K523">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L523">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="M523">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N523">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O523">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P523">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q523">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R523">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S523">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T523">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U523">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V523">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W523">
         <v>-1</v>
       </c>
       <c r="X523">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y523">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z523">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA523">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB523">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:28">
@@ -45526,7 +45526,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>6882651</v>
+        <v>6882655</v>
       </c>
       <c r="C524" t="s">
         <v>27</v>
@@ -45535,73 +45535,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E524" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F524" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G524">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J524">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="K524">
+        <v>3.25</v>
+      </c>
+      <c r="L524">
+        <v>2</v>
+      </c>
+      <c r="M524">
         <v>4.5</v>
       </c>
-      <c r="L524">
-        <v>5.5</v>
-      </c>
-      <c r="M524">
-        <v>1.533</v>
-      </c>
       <c r="N524">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O524">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="P524">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q524">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R524">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S524">
         <v>2.75</v>
       </c>
       <c r="T524">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U524">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V524">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W524">
         <v>-1</v>
       </c>
       <c r="X524">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y524">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z524">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA524">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
       <c r="AB524">
         <v>-0.5</v>
@@ -45612,7 +45612,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>6882650</v>
+        <v>6882651</v>
       </c>
       <c r="C525" t="s">
         <v>27</v>
@@ -45621,13 +45621,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E525" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F525" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G525">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H525">
         <v>0</v>
@@ -45636,43 +45636,43 @@
         <v>52</v>
       </c>
       <c r="J525">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="K525">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L525">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="M525">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="N525">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O525">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P525">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q525">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R525">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S525">
         <v>2.75</v>
       </c>
       <c r="T525">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U525">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V525">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W525">
         <v>-1</v>
@@ -45681,16 +45681,16 @@
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB525">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="526" spans="1:28">
@@ -45698,7 +45698,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>6882655</v>
+        <v>6882650</v>
       </c>
       <c r="C526" t="s">
         <v>27</v>
@@ -45707,19 +45707,19 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E526" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F526" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G526">
         <v>1</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J526">
         <v>3.25</v>
@@ -45731,52 +45731,52 @@
         <v>2</v>
       </c>
       <c r="M526">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N526">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O526">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="P526">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q526">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R526">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S526">
         <v>2.75</v>
       </c>
       <c r="T526">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U526">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V526">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W526">
         <v>-1</v>
       </c>
       <c r="X526">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z526">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA526">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB526">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="527" spans="1:28">
@@ -46128,7 +46128,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>7839995</v>
+        <v>7904264</v>
       </c>
       <c r="C531" t="s">
         <v>27</v>
@@ -46137,46 +46137,46 @@
         <v>45398.65625</v>
       </c>
       <c r="E531" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F531" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G531">
         <v>1</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J531">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K531">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L531">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M531">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="N531">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O531">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="P531">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q531">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R531">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S531">
         <v>2.5</v>
@@ -46188,25 +46188,25 @@
         <v>1.95</v>
       </c>
       <c r="V531">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W531">
         <v>-1</v>
       </c>
       <c r="X531">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y531">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z531">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA531">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB531">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532" spans="1:28">
@@ -46214,7 +46214,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>7904263</v>
+        <v>7839995</v>
       </c>
       <c r="C532" t="s">
         <v>27</v>
@@ -46223,76 +46223,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E532" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F532" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G532">
         <v>1</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J532">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K532">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L532">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="M532">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="N532">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O532">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="P532">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q532">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R532">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S532">
         <v>2.5</v>
       </c>
       <c r="T532">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U532">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V532">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W532">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X532">
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="Z532">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA532">
         <v>-1</v>
       </c>
       <c r="AB532">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="533" spans="1:28">
@@ -46300,7 +46300,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>7904264</v>
+        <v>7904263</v>
       </c>
       <c r="C533" t="s">
         <v>27</v>
@@ -46309,76 +46309,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E533" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F533" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G533">
         <v>1</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J533">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K533">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L533">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M533">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N533">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O533">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="P533">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q533">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R533">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S533">
         <v>2.5</v>
       </c>
       <c r="T533">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U533">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V533">
         <v>-1</v>
       </c>
       <c r="W533">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X533">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y533">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z533">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA533">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB533">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="534" spans="1:28">

--- a/England National League South/England National League South.xlsx
+++ b/England National League South/England National League South.xlsx
@@ -136,10 +136,10 @@
     <t>Hemel Hempstead</t>
   </si>
   <si>
-    <t>Dartford</t>
+    <t>Chelmsford</t>
   </si>
   <si>
-    <t>Chelmsford</t>
+    <t>Dartford</t>
   </si>
   <si>
     <t>Weymouth</t>
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6876121</v>
+        <v>6876120</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1578,13 +1578,13 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1593,28 +1593,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O12">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R12">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>1.875</v>
@@ -1626,31 +1626,31 @@
         <v>2.5</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6876120</v>
+        <v>6876121</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1685,28 +1685,28 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O13">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S13">
         <v>1.875</v>
@@ -1718,31 +1718,31 @@
         <v>2.5</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1762,7 +1762,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -4335,7 +4335,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
@@ -4786,7 +4786,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6876155</v>
+        <v>6876156</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4795,82 +4795,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L47">
         <v>2.1</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="P47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q47">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="R47">
+        <v>0.25</v>
+      </c>
+      <c r="S47">
+        <v>1.825</v>
+      </c>
+      <c r="T47">
+        <v>1.975</v>
+      </c>
+      <c r="U47">
+        <v>2.25</v>
+      </c>
+      <c r="V47">
+        <v>1.85</v>
+      </c>
+      <c r="W47">
+        <v>1.95</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>2.25</v>
+      </c>
+      <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
+        <v>0.4125</v>
+      </c>
+      <c r="AB47">
         <v>-0.5</v>
       </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>1.95</v>
-      </c>
-      <c r="U47">
-        <v>2.5</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
-      <c r="W47">
-        <v>1.85</v>
-      </c>
-      <c r="X47">
-        <v>0.833</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>-1</v>
-      </c>
-      <c r="AA47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD47">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -5074,7 +5074,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5522,7 +5522,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6876156</v>
+        <v>6876155</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5531,82 +5531,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L55">
         <v>2.1</v>
       </c>
       <c r="M55">
+        <v>3.4</v>
+      </c>
+      <c r="N55">
+        <v>2.875</v>
+      </c>
+      <c r="O55">
+        <v>1.833</v>
+      </c>
+      <c r="P55">
         <v>3.5</v>
       </c>
-      <c r="N55">
-        <v>2.8</v>
-      </c>
-      <c r="O55">
-        <v>2.7</v>
-      </c>
-      <c r="P55">
-        <v>3.25</v>
-      </c>
       <c r="Q55">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R55">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V55">
+        <v>1.95</v>
+      </c>
+      <c r="W55">
         <v>1.85</v>
       </c>
-      <c r="W55">
-        <v>1.95</v>
-      </c>
       <c r="X55">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y55">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD55">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5718,7 +5718,7 @@
         <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -6451,7 +6451,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
@@ -7466,7 +7466,7 @@
         <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>45173.65625</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -8199,7 +8199,7 @@
         <v>45174.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
         <v>45</v>
@@ -9766,7 +9766,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9858,7 +9858,7 @@
         <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10591,7 +10591,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
         <v>32</v>
@@ -10867,7 +10867,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
         <v>47</v>
@@ -12066,7 +12066,7 @@
         <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -12894,7 +12894,7 @@
         <v>53</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G135">
         <v>4</v>
@@ -13075,7 +13075,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>50</v>
@@ -13538,7 +13538,7 @@
         <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -14087,7 +14087,7 @@
         <v>45222.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
         <v>38</v>
@@ -14458,7 +14458,7 @@
         <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -15375,7 +15375,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
         <v>35</v>
@@ -15654,7 +15654,7 @@
         <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -16203,7 +16203,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
         <v>31</v>
@@ -16574,7 +16574,7 @@
         <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -17675,10 +17675,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E187" t="s">
+        <v>41</v>
+      </c>
+      <c r="F187" t="s">
         <v>40</v>
-      </c>
-      <c r="F187" t="s">
-        <v>41</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -18687,7 +18687,7 @@
         <v>45241.5</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
         <v>34</v>
@@ -18874,7 +18874,7 @@
         <v>48</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -19242,7 +19242,7 @@
         <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -19423,7 +19423,7 @@
         <v>45250.69791666666</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
         <v>33</v>
@@ -19699,7 +19699,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
         <v>46</v>
@@ -20343,7 +20343,7 @@
         <v>45255.5</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
         <v>36</v>
@@ -20895,7 +20895,7 @@
         <v>45255.5</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
         <v>44</v>
@@ -21634,7 +21634,7 @@
         <v>52</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -23195,7 +23195,7 @@
         <v>45269.5</v>
       </c>
       <c r="E247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F247" t="s">
         <v>51</v>
@@ -24026,7 +24026,7 @@
         <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -24210,7 +24210,7 @@
         <v>47</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G258">
         <v>4</v>
@@ -25311,7 +25311,7 @@
         <v>45283.5</v>
       </c>
       <c r="E270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F270" t="s">
         <v>44</v>
@@ -25403,7 +25403,7 @@
         <v>45283.5</v>
       </c>
       <c r="E271" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F271" t="s">
         <v>32</v>
@@ -25682,7 +25682,7 @@
         <v>43</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -26142,7 +26142,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -26783,7 +26783,7 @@
         <v>45290.5</v>
       </c>
       <c r="E286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F286" t="s">
         <v>43</v>
@@ -27611,7 +27611,7 @@
         <v>45292.5</v>
       </c>
       <c r="E295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F295" t="s">
         <v>46</v>
@@ -28534,7 +28534,7 @@
         <v>31</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -28626,7 +28626,7 @@
         <v>30</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -28902,7 +28902,7 @@
         <v>33</v>
       </c>
       <c r="F309" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G309">
         <v>2</v>
@@ -30095,7 +30095,7 @@
         <v>45313.69791666666</v>
       </c>
       <c r="E322" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F322" t="s">
         <v>43</v>
@@ -31383,7 +31383,7 @@
         <v>45318.5</v>
       </c>
       <c r="E336" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F336" t="s">
         <v>42</v>
@@ -31938,7 +31938,7 @@
         <v>53</v>
       </c>
       <c r="F342" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -32027,7 +32027,7 @@
         <v>45320.69791666666</v>
       </c>
       <c r="E343" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F343" t="s">
         <v>31</v>
@@ -32306,7 +32306,7 @@
         <v>49</v>
       </c>
       <c r="F346" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G346">
         <v>2</v>
@@ -33134,7 +33134,7 @@
         <v>50</v>
       </c>
       <c r="F355" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G355">
         <v>2</v>
@@ -33683,7 +33683,7 @@
         <v>45332.5</v>
       </c>
       <c r="E361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F361" t="s">
         <v>42</v>
@@ -34146,7 +34146,7 @@
         <v>52</v>
       </c>
       <c r="F366" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G366">
         <v>1</v>
@@ -34327,7 +34327,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E368" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F368" t="s">
         <v>34</v>
@@ -34698,7 +34698,7 @@
         <v>37</v>
       </c>
       <c r="F372" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G372">
         <v>0</v>
@@ -34790,7 +34790,7 @@
         <v>38</v>
       </c>
       <c r="F373" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -36078,7 +36078,7 @@
         <v>39</v>
       </c>
       <c r="F387" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -36170,7 +36170,7 @@
         <v>45</v>
       </c>
       <c r="F388" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G388">
         <v>3</v>
@@ -36903,7 +36903,7 @@
         <v>45346.5</v>
       </c>
       <c r="E396" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F396" t="s">
         <v>35</v>
@@ -37087,7 +37087,7 @@
         <v>45346.5</v>
       </c>
       <c r="E398" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F398" t="s">
         <v>51</v>
@@ -37550,7 +37550,7 @@
         <v>49</v>
       </c>
       <c r="F403" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G403">
         <v>1</v>
@@ -37731,7 +37731,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E405" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F405" t="s">
         <v>48</v>
@@ -38283,7 +38283,7 @@
         <v>45353.5</v>
       </c>
       <c r="E411" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F411" t="s">
         <v>48</v>
@@ -38645,7 +38645,7 @@
         <v>45355.69791666666</v>
       </c>
       <c r="E415" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F415" t="s">
         <v>30</v>
@@ -39660,7 +39660,7 @@
         <v>44</v>
       </c>
       <c r="F426" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G426">
         <v>4</v>
@@ -40212,7 +40212,7 @@
         <v>36</v>
       </c>
       <c r="F432" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -40488,7 +40488,7 @@
         <v>33</v>
       </c>
       <c r="F435" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G435">
         <v>2</v>
@@ -41040,7 +41040,7 @@
         <v>46</v>
       </c>
       <c r="F441" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G441">
         <v>2</v>
@@ -42141,7 +42141,7 @@
         <v>45367.5</v>
       </c>
       <c r="E453" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F453" t="s">
         <v>52</v>
@@ -42233,7 +42233,7 @@
         <v>45367.5</v>
       </c>
       <c r="E454" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F454" t="s">
         <v>33</v>
@@ -42877,7 +42877,7 @@
         <v>45374.5</v>
       </c>
       <c r="E461" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F461" t="s">
         <v>39</v>
@@ -43064,7 +43064,7 @@
         <v>35</v>
       </c>
       <c r="F463" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G463">
         <v>2</v>
@@ -43800,7 +43800,7 @@
         <v>36</v>
       </c>
       <c r="F471" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -44349,10 +44349,10 @@
         <v>45380.5</v>
       </c>
       <c r="E477" t="s">
+        <v>40</v>
+      </c>
+      <c r="F477" t="s">
         <v>41</v>
-      </c>
-      <c r="F477" t="s">
-        <v>40</v>
       </c>
       <c r="G477">
         <v>4</v>
@@ -45085,7 +45085,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E485" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F485" t="s">
         <v>37</v>
@@ -45180,7 +45180,7 @@
         <v>38</v>
       </c>
       <c r="F486" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G486">
         <v>1</v>
@@ -46465,7 +46465,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E500" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F500" t="s">
         <v>45</v>
@@ -47020,7 +47020,7 @@
         <v>50</v>
       </c>
       <c r="F506" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G506">
         <v>1</v>
@@ -47385,7 +47385,7 @@
         <v>45391.65625</v>
       </c>
       <c r="E510" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F510" t="s">
         <v>30</v>
@@ -47744,7 +47744,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>8027265</v>
+        <v>7859180</v>
       </c>
       <c r="C514" t="s">
         <v>29</v>
@@ -47753,10 +47753,10 @@
         <v>45392.65625</v>
       </c>
       <c r="E514" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F514" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G514">
         <v>0</v>
@@ -47774,61 +47774,61 @@
         <v>55</v>
       </c>
       <c r="L514">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M514">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N514">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O514">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="P514">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q514">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="R514">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S514">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T514">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U514">
         <v>2.75</v>
       </c>
       <c r="V514">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W514">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X514">
         <v>-1</v>
       </c>
       <c r="Y514">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z514">
         <v>-1</v>
       </c>
       <c r="AA514">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AB514">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AC514">
         <v>-1</v>
       </c>
       <c r="AD514">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="515" spans="1:30">
@@ -47836,7 +47836,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7859180</v>
+        <v>8027265</v>
       </c>
       <c r="C515" t="s">
         <v>29</v>
@@ -47845,10 +47845,10 @@
         <v>45392.65625</v>
       </c>
       <c r="E515" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F515" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -47866,61 +47866,61 @@
         <v>55</v>
       </c>
       <c r="L515">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M515">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N515">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O515">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P515">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q515">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="R515">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S515">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T515">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U515">
         <v>2.75</v>
       </c>
       <c r="V515">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W515">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X515">
         <v>-1</v>
       </c>
       <c r="Y515">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z515">
         <v>-1</v>
       </c>
       <c r="AA515">
+        <v>0.4</v>
+      </c>
+      <c r="AB515">
         <v>-0.5</v>
       </c>
-      <c r="AB515">
-        <v>0.425</v>
-      </c>
       <c r="AC515">
         <v>-1</v>
       </c>
       <c r="AD515">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="516" spans="1:30">
@@ -48400,7 +48400,7 @@
         <v>51</v>
       </c>
       <c r="F521" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G521">
         <v>3</v>
@@ -48765,7 +48765,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E525" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F525" t="s">
         <v>47</v>
@@ -50148,7 +50148,7 @@
         <v>34</v>
       </c>
       <c r="F540" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G540">
         <v>1</v>
@@ -50237,7 +50237,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E541" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F541" t="s">
         <v>36</v>
@@ -51157,7 +51157,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E551" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F551" t="s">
         <v>46</v>
